--- a/app/transform/static/excel_form/china_form.xlsx
+++ b/app/transform/static/excel_form/china_form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SS-workspace\project\AgencyTeam_assignment_1\transform\static\excel_form\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinjieun/Documents/GitHub/AgencyTeam_assignment/app/transform/static/excel_form/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3C1B62-698D-441C-8E79-BB4173AB9186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9E3E37-C97D-C94E-BA66-993E0FBDFC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IMFORM" sheetId="1" r:id="rId1"/>
@@ -551,12 +551,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="6" formatCode="&quot;₩&quot;#,##0;[Red]\-&quot;₩&quot;#,##0"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;?_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0;[Red]\-&quot;₩&quot;#,##0"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;?_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -925,14 +925,14 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -952,7 +952,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -961,16 +961,16 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1042,19 +1042,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1072,40 +1072,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1120,10 +1102,19 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1141,8 +1132,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1439,40 +1439,37 @@
   </sheetPr>
   <dimension ref="A1:AE287"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A243" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8:O287"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.125" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
-    <col min="8" max="8" width="7.625" customWidth="1"/>
-    <col min="9" max="9" width="7.625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="15.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="10.5" customWidth="1"/>
     <col min="15" max="15" width="13.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="16" max="27" width="7.125" style="2" customWidth="1"/>
+    <col min="16" max="27" width="7.1640625" style="2" customWidth="1"/>
     <col min="28" max="28" width="28.5" style="2" customWidth="1"/>
-    <col min="29" max="29" width="9.125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="9.1640625" style="2" customWidth="1"/>
     <col min="30" max="30" width="18" style="1" customWidth="1"/>
-    <col min="31" max="31" width="106.375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="106.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="1" customFormat="1">
       <c r="A1" s="46"/>
       <c r="I1" s="17"/>
-      <c r="J1" s="17" t="str">
-        <f>B8&amp;I8</f>
-        <v/>
-      </c>
+      <c r="J1" s="17"/>
       <c r="O1" s="40"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -1489,7 +1486,7 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" spans="1:31" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A2" s="46"/>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
@@ -1520,7 +1517,7 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
     </row>
-    <row r="3" spans="1:31" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="46"/>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
@@ -1551,7 +1548,7 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="1:31" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="46"/>
       <c r="B4" s="32" t="s">
         <v>62</v>
@@ -1586,7 +1583,7 @@
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
     </row>
-    <row r="5" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" ht="19.5" customHeight="1">
       <c r="A5" s="46"/>
       <c r="B5" s="25" t="s">
         <v>60</v>
@@ -1622,12 +1619,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" ht="16.5" customHeight="1">
       <c r="A6" s="46"/>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="49" t="s">
         <v>69</v>
       </c>
       <c r="D6" s="55" t="s">
@@ -1639,78 +1636,78 @@
       <c r="F6" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="59" t="s">
+      <c r="K6" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="61" t="s">
+      <c r="L6" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="48" t="s">
+      <c r="M6" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="57" t="s">
+      <c r="N6" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="66" t="s">
+      <c r="O6" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="P6" s="63" t="s">
+      <c r="P6" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="63" t="s">
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="V6" s="64"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="64"/>
-      <c r="Z6" s="64"/>
-      <c r="AA6" s="65"/>
-      <c r="AB6" s="48" t="s">
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="62"/>
+      <c r="AB6" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AC6" s="59" t="s">
+      <c r="AC6" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="AD6" s="59" t="s">
+      <c r="AD6" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="AE6" s="48" t="s">
+      <c r="AE6" s="49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" ht="32">
       <c r="A7" s="46"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="54"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="56"/>
       <c r="E7" s="56"/>
       <c r="F7" s="56"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="67"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="64"/>
       <c r="P7" s="21" t="s">
         <v>53</v>
       </c>
@@ -1747,12 +1744,12 @@
       <c r="AA7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="60"/>
-      <c r="AD7" s="60"/>
-      <c r="AE7" s="54"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="54"/>
+      <c r="AD7" s="54"/>
+      <c r="AE7" s="50"/>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" s="46"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1767,7 +1764,7 @@
       <c r="L8" s="14"/>
       <c r="M8" s="3"/>
       <c r="N8" s="15"/>
-      <c r="O8" s="68" t="str">
+      <c r="O8" s="48" t="str">
         <f>LEFT(B8,9)&amp;P8</f>
         <v/>
       </c>
@@ -1788,7 +1785,7 @@
       <c r="AD8" s="10"/>
       <c r="AE8" s="36"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31">
       <c r="A9" s="46"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1803,7 +1800,7 @@
       <c r="L9" s="14"/>
       <c r="M9" s="3"/>
       <c r="N9" s="15"/>
-      <c r="O9" s="68" t="str">
+      <c r="O9" s="48" t="str">
         <f t="shared" ref="O9:O72" si="0">LEFT(B9,9)&amp;P9</f>
         <v/>
       </c>
@@ -1824,7 +1821,7 @@
       <c r="AD9" s="10"/>
       <c r="AE9" s="36"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1838,7 +1835,7 @@
       <c r="L10" s="14"/>
       <c r="M10" s="3"/>
       <c r="N10" s="15"/>
-      <c r="O10" s="68" t="str">
+      <c r="O10" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1859,7 +1856,7 @@
       <c r="AD10" s="10"/>
       <c r="AE10" s="36"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1873,7 +1870,7 @@
       <c r="L11" s="14"/>
       <c r="M11" s="3"/>
       <c r="N11" s="15"/>
-      <c r="O11" s="68" t="str">
+      <c r="O11" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1894,7 +1891,7 @@
       <c r="AD11" s="10"/>
       <c r="AE11" s="36"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1908,7 +1905,7 @@
       <c r="L12" s="14"/>
       <c r="M12" s="3"/>
       <c r="N12" s="15"/>
-      <c r="O12" s="68" t="str">
+      <c r="O12" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1929,7 +1926,7 @@
       <c r="AD12" s="10"/>
       <c r="AE12" s="36"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1943,7 +1940,7 @@
       <c r="L13" s="14"/>
       <c r="M13" s="3"/>
       <c r="N13" s="15"/>
-      <c r="O13" s="68" t="str">
+      <c r="O13" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1964,7 +1961,7 @@
       <c r="AD13" s="10"/>
       <c r="AE13" s="36"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31">
       <c r="B14" s="3"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1978,7 +1975,7 @@
       <c r="L14" s="14"/>
       <c r="M14" s="3"/>
       <c r="N14" s="15"/>
-      <c r="O14" s="68" t="str">
+      <c r="O14" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1999,7 +1996,7 @@
       <c r="AD14" s="10"/>
       <c r="AE14" s="36"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31">
       <c r="B15" s="3"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -2013,7 +2010,7 @@
       <c r="L15" s="14"/>
       <c r="M15" s="3"/>
       <c r="N15" s="15"/>
-      <c r="O15" s="68" t="str">
+      <c r="O15" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2034,7 +2031,7 @@
       <c r="AD15" s="10"/>
       <c r="AE15" s="36"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31">
       <c r="B16" s="3"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2048,7 +2045,7 @@
       <c r="L16" s="14"/>
       <c r="M16" s="3"/>
       <c r="N16" s="15"/>
-      <c r="O16" s="68" t="str">
+      <c r="O16" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2069,7 +2066,7 @@
       <c r="AD16" s="10"/>
       <c r="AE16" s="36"/>
     </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:31">
       <c r="B17" s="3"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -2083,7 +2080,7 @@
       <c r="L17" s="14"/>
       <c r="M17" s="3"/>
       <c r="N17" s="15"/>
-      <c r="O17" s="68" t="str">
+      <c r="O17" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2104,7 +2101,7 @@
       <c r="AD17" s="10"/>
       <c r="AE17" s="36"/>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:31">
       <c r="B18" s="3"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -2118,7 +2115,7 @@
       <c r="L18" s="14"/>
       <c r="M18" s="3"/>
       <c r="N18" s="15"/>
-      <c r="O18" s="68" t="str">
+      <c r="O18" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2139,7 +2136,7 @@
       <c r="AD18" s="10"/>
       <c r="AE18" s="36"/>
     </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:31">
       <c r="B19" s="3"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -2153,7 +2150,7 @@
       <c r="L19" s="14"/>
       <c r="M19" s="3"/>
       <c r="N19" s="15"/>
-      <c r="O19" s="68" t="str">
+      <c r="O19" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2174,7 +2171,7 @@
       <c r="AD19" s="10"/>
       <c r="AE19" s="36"/>
     </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:31">
       <c r="B20" s="3"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -2188,7 +2185,7 @@
       <c r="L20" s="14"/>
       <c r="M20" s="3"/>
       <c r="N20" s="15"/>
-      <c r="O20" s="68" t="str">
+      <c r="O20" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2209,7 +2206,7 @@
       <c r="AD20" s="10"/>
       <c r="AE20" s="36"/>
     </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:31">
       <c r="B21" s="3"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -2223,7 +2220,7 @@
       <c r="L21" s="14"/>
       <c r="M21" s="3"/>
       <c r="N21" s="15"/>
-      <c r="O21" s="68" t="str">
+      <c r="O21" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2244,7 +2241,7 @@
       <c r="AD21" s="10"/>
       <c r="AE21" s="36"/>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:31">
       <c r="B22" s="3"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -2258,7 +2255,7 @@
       <c r="L22" s="14"/>
       <c r="M22" s="3"/>
       <c r="N22" s="15"/>
-      <c r="O22" s="68" t="str">
+      <c r="O22" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2279,7 +2276,7 @@
       <c r="AD22" s="10"/>
       <c r="AE22" s="36"/>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:31">
       <c r="B23" s="3"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2293,7 +2290,7 @@
       <c r="L23" s="14"/>
       <c r="M23" s="3"/>
       <c r="N23" s="15"/>
-      <c r="O23" s="68" t="str">
+      <c r="O23" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2314,7 +2311,7 @@
       <c r="AD23" s="10"/>
       <c r="AE23" s="36"/>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:31">
       <c r="B24" s="3"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -2328,7 +2325,7 @@
       <c r="L24" s="14"/>
       <c r="M24" s="3"/>
       <c r="N24" s="15"/>
-      <c r="O24" s="68" t="str">
+      <c r="O24" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2349,7 +2346,7 @@
       <c r="AD24" s="10"/>
       <c r="AE24" s="36"/>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:31">
       <c r="B25" s="3"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -2363,7 +2360,7 @@
       <c r="L25" s="14"/>
       <c r="M25" s="3"/>
       <c r="N25" s="15"/>
-      <c r="O25" s="68" t="str">
+      <c r="O25" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2384,7 +2381,7 @@
       <c r="AD25" s="10"/>
       <c r="AE25" s="36"/>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:31">
       <c r="B26" s="3"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -2398,7 +2395,7 @@
       <c r="L26" s="14"/>
       <c r="M26" s="3"/>
       <c r="N26" s="15"/>
-      <c r="O26" s="68" t="str">
+      <c r="O26" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2419,7 +2416,7 @@
       <c r="AD26" s="10"/>
       <c r="AE26" s="36"/>
     </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:31">
       <c r="B27" s="3"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -2433,7 +2430,7 @@
       <c r="L27" s="14"/>
       <c r="M27" s="3"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="68" t="str">
+      <c r="O27" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2454,7 +2451,7 @@
       <c r="AD27" s="10"/>
       <c r="AE27" s="36"/>
     </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:31">
       <c r="B28" s="3"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -2468,7 +2465,7 @@
       <c r="L28" s="14"/>
       <c r="M28" s="3"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="68" t="str">
+      <c r="O28" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2489,7 +2486,7 @@
       <c r="AD28" s="10"/>
       <c r="AE28" s="36"/>
     </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:31">
       <c r="B29" s="3"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -2503,7 +2500,7 @@
       <c r="L29" s="14"/>
       <c r="M29" s="3"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="68" t="str">
+      <c r="O29" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2524,7 +2521,7 @@
       <c r="AD29" s="10"/>
       <c r="AE29" s="36"/>
     </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:31">
       <c r="B30" s="3"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -2538,7 +2535,7 @@
       <c r="L30" s="14"/>
       <c r="M30" s="3"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="68" t="str">
+      <c r="O30" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2559,7 +2556,7 @@
       <c r="AD30" s="10"/>
       <c r="AE30" s="36"/>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:31">
       <c r="B31" s="3"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -2573,7 +2570,7 @@
       <c r="L31" s="14"/>
       <c r="M31" s="3"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="68" t="str">
+      <c r="O31" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2594,7 +2591,7 @@
       <c r="AD31" s="10"/>
       <c r="AE31" s="36"/>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:31">
       <c r="B32" s="3"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -2608,7 +2605,7 @@
       <c r="L32" s="14"/>
       <c r="M32" s="3"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="68" t="str">
+      <c r="O32" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2629,7 +2626,7 @@
       <c r="AD32" s="10"/>
       <c r="AE32" s="36"/>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:31">
       <c r="B33" s="3"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -2643,7 +2640,7 @@
       <c r="L33" s="14"/>
       <c r="M33" s="3"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="68" t="str">
+      <c r="O33" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2664,7 +2661,7 @@
       <c r="AD33" s="10"/>
       <c r="AE33" s="36"/>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:31">
       <c r="B34" s="3"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -2678,7 +2675,7 @@
       <c r="L34" s="14"/>
       <c r="M34" s="3"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="68" t="str">
+      <c r="O34" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2699,7 +2696,7 @@
       <c r="AD34" s="10"/>
       <c r="AE34" s="36"/>
     </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:31">
       <c r="B35" s="3"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -2713,7 +2710,7 @@
       <c r="L35" s="14"/>
       <c r="M35" s="3"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="68" t="str">
+      <c r="O35" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2734,7 +2731,7 @@
       <c r="AD35" s="10"/>
       <c r="AE35" s="36"/>
     </row>
-    <row r="36" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:31">
       <c r="B36" s="3"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -2748,7 +2745,7 @@
       <c r="L36" s="14"/>
       <c r="M36" s="3"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="68" t="str">
+      <c r="O36" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2769,7 +2766,7 @@
       <c r="AD36" s="10"/>
       <c r="AE36" s="36"/>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:31">
       <c r="B37" s="3"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2783,7 +2780,7 @@
       <c r="L37" s="14"/>
       <c r="M37" s="3"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="68" t="str">
+      <c r="O37" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2804,7 +2801,7 @@
       <c r="AD37" s="10"/>
       <c r="AE37" s="36"/>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:31">
       <c r="B38" s="3"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2818,7 +2815,7 @@
       <c r="L38" s="14"/>
       <c r="M38" s="3"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="68" t="str">
+      <c r="O38" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2839,7 +2836,7 @@
       <c r="AD38" s="10"/>
       <c r="AE38" s="36"/>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:31">
       <c r="B39" s="3"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2853,7 +2850,7 @@
       <c r="L39" s="14"/>
       <c r="M39" s="3"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="68" t="str">
+      <c r="O39" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2874,7 +2871,7 @@
       <c r="AD39" s="10"/>
       <c r="AE39" s="36"/>
     </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:31">
       <c r="B40" s="3"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -2888,7 +2885,7 @@
       <c r="L40" s="14"/>
       <c r="M40" s="3"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="68" t="str">
+      <c r="O40" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2909,7 +2906,7 @@
       <c r="AD40" s="10"/>
       <c r="AE40" s="36"/>
     </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:31">
       <c r="B41" s="3"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -2923,7 +2920,7 @@
       <c r="L41" s="14"/>
       <c r="M41" s="3"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="68" t="str">
+      <c r="O41" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2944,7 +2941,7 @@
       <c r="AD41" s="10"/>
       <c r="AE41" s="36"/>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:31">
       <c r="B42" s="3"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -2958,7 +2955,7 @@
       <c r="L42" s="14"/>
       <c r="M42" s="3"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="68" t="str">
+      <c r="O42" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2979,7 +2976,7 @@
       <c r="AD42" s="10"/>
       <c r="AE42" s="36"/>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:31">
       <c r="B43" s="3"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -2993,7 +2990,7 @@
       <c r="L43" s="14"/>
       <c r="M43" s="3"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="68" t="str">
+      <c r="O43" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3014,7 +3011,7 @@
       <c r="AD43" s="10"/>
       <c r="AE43" s="36"/>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:31">
       <c r="B44" s="3"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -3028,7 +3025,7 @@
       <c r="L44" s="14"/>
       <c r="M44" s="3"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="68" t="str">
+      <c r="O44" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3049,7 +3046,7 @@
       <c r="AD44" s="10"/>
       <c r="AE44" s="36"/>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:31">
       <c r="B45" s="3"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -3063,7 +3060,7 @@
       <c r="L45" s="14"/>
       <c r="M45" s="3"/>
       <c r="N45" s="15"/>
-      <c r="O45" s="68" t="str">
+      <c r="O45" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3084,7 +3081,7 @@
       <c r="AD45" s="10"/>
       <c r="AE45" s="36"/>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:31">
       <c r="B46" s="3"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -3098,7 +3095,7 @@
       <c r="L46" s="14"/>
       <c r="M46" s="3"/>
       <c r="N46" s="15"/>
-      <c r="O46" s="68" t="str">
+      <c r="O46" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3119,7 +3116,7 @@
       <c r="AD46" s="10"/>
       <c r="AE46" s="36"/>
     </row>
-    <row r="47" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:31" s="1" customFormat="1">
       <c r="B47" s="3"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -3133,7 +3130,7 @@
       <c r="L47" s="14"/>
       <c r="M47" s="3"/>
       <c r="N47" s="15"/>
-      <c r="O47" s="68" t="str">
+      <c r="O47" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3154,7 +3151,7 @@
       <c r="AD47" s="10"/>
       <c r="AE47" s="36"/>
     </row>
-    <row r="48" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:31" s="1" customFormat="1">
       <c r="B48" s="3"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -3168,7 +3165,7 @@
       <c r="L48" s="14"/>
       <c r="M48" s="3"/>
       <c r="N48" s="15"/>
-      <c r="O48" s="68" t="str">
+      <c r="O48" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3189,7 +3186,7 @@
       <c r="AD48" s="10"/>
       <c r="AE48" s="36"/>
     </row>
-    <row r="49" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:31" s="1" customFormat="1">
       <c r="B49" s="3"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -3203,7 +3200,7 @@
       <c r="L49" s="14"/>
       <c r="M49" s="3"/>
       <c r="N49" s="15"/>
-      <c r="O49" s="68" t="str">
+      <c r="O49" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3224,7 +3221,7 @@
       <c r="AD49" s="10"/>
       <c r="AE49" s="36"/>
     </row>
-    <row r="50" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:31" s="1" customFormat="1">
       <c r="B50" s="3"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -3238,7 +3235,7 @@
       <c r="L50" s="14"/>
       <c r="M50" s="3"/>
       <c r="N50" s="15"/>
-      <c r="O50" s="68" t="str">
+      <c r="O50" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3259,7 +3256,7 @@
       <c r="AD50" s="10"/>
       <c r="AE50" s="36"/>
     </row>
-    <row r="51" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:31" s="1" customFormat="1">
       <c r="B51" s="3"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -3273,7 +3270,7 @@
       <c r="L51" s="14"/>
       <c r="M51" s="3"/>
       <c r="N51" s="15"/>
-      <c r="O51" s="68" t="str">
+      <c r="O51" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3294,7 +3291,7 @@
       <c r="AD51" s="10"/>
       <c r="AE51" s="36"/>
     </row>
-    <row r="52" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:31" s="1" customFormat="1">
       <c r="B52" s="3"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -3308,7 +3305,7 @@
       <c r="L52" s="14"/>
       <c r="M52" s="3"/>
       <c r="N52" s="15"/>
-      <c r="O52" s="68" t="str">
+      <c r="O52" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3329,7 +3326,7 @@
       <c r="AD52" s="10"/>
       <c r="AE52" s="36"/>
     </row>
-    <row r="53" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:31" s="1" customFormat="1">
       <c r="B53" s="3"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -3343,7 +3340,7 @@
       <c r="L53" s="14"/>
       <c r="M53" s="3"/>
       <c r="N53" s="15"/>
-      <c r="O53" s="68" t="str">
+      <c r="O53" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3364,7 +3361,7 @@
       <c r="AD53" s="10"/>
       <c r="AE53" s="36"/>
     </row>
-    <row r="54" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:31" s="1" customFormat="1">
       <c r="B54" s="3"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -3378,7 +3375,7 @@
       <c r="L54" s="14"/>
       <c r="M54" s="3"/>
       <c r="N54" s="15"/>
-      <c r="O54" s="68" t="str">
+      <c r="O54" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3399,7 +3396,7 @@
       <c r="AD54" s="10"/>
       <c r="AE54" s="36"/>
     </row>
-    <row r="55" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:31" s="1" customFormat="1">
       <c r="B55" s="3"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -3413,7 +3410,7 @@
       <c r="L55" s="14"/>
       <c r="M55" s="3"/>
       <c r="N55" s="15"/>
-      <c r="O55" s="68" t="str">
+      <c r="O55" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3434,7 +3431,7 @@
       <c r="AD55" s="10"/>
       <c r="AE55" s="36"/>
     </row>
-    <row r="56" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:31" s="1" customFormat="1">
       <c r="B56" s="3"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -3448,7 +3445,7 @@
       <c r="L56" s="14"/>
       <c r="M56" s="3"/>
       <c r="N56" s="15"/>
-      <c r="O56" s="68" t="str">
+      <c r="O56" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3469,7 +3466,7 @@
       <c r="AD56" s="10"/>
       <c r="AE56" s="36"/>
     </row>
-    <row r="57" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:31" s="1" customFormat="1">
       <c r="B57" s="3"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -3483,7 +3480,7 @@
       <c r="L57" s="14"/>
       <c r="M57" s="3"/>
       <c r="N57" s="15"/>
-      <c r="O57" s="68" t="str">
+      <c r="O57" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3504,7 +3501,7 @@
       <c r="AD57" s="10"/>
       <c r="AE57" s="36"/>
     </row>
-    <row r="58" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:31" s="1" customFormat="1">
       <c r="B58" s="3"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -3518,7 +3515,7 @@
       <c r="L58" s="14"/>
       <c r="M58" s="3"/>
       <c r="N58" s="15"/>
-      <c r="O58" s="68" t="str">
+      <c r="O58" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3539,7 +3536,7 @@
       <c r="AD58" s="10"/>
       <c r="AE58" s="36"/>
     </row>
-    <row r="59" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:31" s="1" customFormat="1">
       <c r="B59" s="3"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -3553,7 +3550,7 @@
       <c r="L59" s="14"/>
       <c r="M59" s="3"/>
       <c r="N59" s="15"/>
-      <c r="O59" s="68" t="str">
+      <c r="O59" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3574,7 +3571,7 @@
       <c r="AD59" s="10"/>
       <c r="AE59" s="36"/>
     </row>
-    <row r="60" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:31" s="1" customFormat="1">
       <c r="B60" s="3"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -3588,7 +3585,7 @@
       <c r="L60" s="14"/>
       <c r="M60" s="3"/>
       <c r="N60" s="15"/>
-      <c r="O60" s="68" t="str">
+      <c r="O60" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3609,7 +3606,7 @@
       <c r="AD60" s="10"/>
       <c r="AE60" s="36"/>
     </row>
-    <row r="61" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:31" s="1" customFormat="1">
       <c r="B61" s="3"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -3623,7 +3620,7 @@
       <c r="L61" s="14"/>
       <c r="M61" s="3"/>
       <c r="N61" s="15"/>
-      <c r="O61" s="68" t="str">
+      <c r="O61" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3644,7 +3641,7 @@
       <c r="AD61" s="10"/>
       <c r="AE61" s="36"/>
     </row>
-    <row r="62" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:31" s="1" customFormat="1">
       <c r="B62" s="3"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -3658,7 +3655,7 @@
       <c r="L62" s="14"/>
       <c r="M62" s="3"/>
       <c r="N62" s="15"/>
-      <c r="O62" s="68" t="str">
+      <c r="O62" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3679,7 +3676,7 @@
       <c r="AD62" s="10"/>
       <c r="AE62" s="36"/>
     </row>
-    <row r="63" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:31" s="1" customFormat="1">
       <c r="B63" s="3"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -3693,7 +3690,7 @@
       <c r="L63" s="14"/>
       <c r="M63" s="3"/>
       <c r="N63" s="15"/>
-      <c r="O63" s="68" t="str">
+      <c r="O63" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3714,7 +3711,7 @@
       <c r="AD63" s="10"/>
       <c r="AE63" s="36"/>
     </row>
-    <row r="64" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:31" s="1" customFormat="1">
       <c r="B64" s="3"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -3728,7 +3725,7 @@
       <c r="L64" s="14"/>
       <c r="M64" s="3"/>
       <c r="N64" s="15"/>
-      <c r="O64" s="68" t="str">
+      <c r="O64" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3749,7 +3746,7 @@
       <c r="AD64" s="10"/>
       <c r="AE64" s="36"/>
     </row>
-    <row r="65" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:31" s="1" customFormat="1">
       <c r="B65" s="3"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -3763,7 +3760,7 @@
       <c r="L65" s="14"/>
       <c r="M65" s="3"/>
       <c r="N65" s="15"/>
-      <c r="O65" s="68" t="str">
+      <c r="O65" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3784,7 +3781,7 @@
       <c r="AD65" s="10"/>
       <c r="AE65" s="36"/>
     </row>
-    <row r="66" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:31" s="1" customFormat="1">
       <c r="B66" s="3"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -3798,7 +3795,7 @@
       <c r="L66" s="14"/>
       <c r="M66" s="3"/>
       <c r="N66" s="15"/>
-      <c r="O66" s="68" t="str">
+      <c r="O66" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3819,7 +3816,7 @@
       <c r="AD66" s="10"/>
       <c r="AE66" s="36"/>
     </row>
-    <row r="67" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:31" s="1" customFormat="1">
       <c r="B67" s="3"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -3833,7 +3830,7 @@
       <c r="L67" s="14"/>
       <c r="M67" s="3"/>
       <c r="N67" s="15"/>
-      <c r="O67" s="68" t="str">
+      <c r="O67" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3854,7 +3851,7 @@
       <c r="AD67" s="10"/>
       <c r="AE67" s="36"/>
     </row>
-    <row r="68" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:31" s="1" customFormat="1">
       <c r="B68" s="3"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -3868,7 +3865,7 @@
       <c r="L68" s="14"/>
       <c r="M68" s="3"/>
       <c r="N68" s="15"/>
-      <c r="O68" s="68" t="str">
+      <c r="O68" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3889,7 +3886,7 @@
       <c r="AD68" s="10"/>
       <c r="AE68" s="36"/>
     </row>
-    <row r="69" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:31" s="1" customFormat="1">
       <c r="B69" s="3"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -3903,7 +3900,7 @@
       <c r="L69" s="14"/>
       <c r="M69" s="3"/>
       <c r="N69" s="15"/>
-      <c r="O69" s="68" t="str">
+      <c r="O69" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3924,7 +3921,7 @@
       <c r="AD69" s="10"/>
       <c r="AE69" s="36"/>
     </row>
-    <row r="70" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:31" s="1" customFormat="1">
       <c r="B70" s="3"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -3938,7 +3935,7 @@
       <c r="L70" s="14"/>
       <c r="M70" s="3"/>
       <c r="N70" s="15"/>
-      <c r="O70" s="68" t="str">
+      <c r="O70" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3959,7 +3956,7 @@
       <c r="AD70" s="10"/>
       <c r="AE70" s="36"/>
     </row>
-    <row r="71" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:31" s="1" customFormat="1">
       <c r="B71" s="3"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -3973,7 +3970,7 @@
       <c r="L71" s="14"/>
       <c r="M71" s="3"/>
       <c r="N71" s="15"/>
-      <c r="O71" s="68" t="str">
+      <c r="O71" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3994,7 +3991,7 @@
       <c r="AD71" s="10"/>
       <c r="AE71" s="36"/>
     </row>
-    <row r="72" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:31" s="1" customFormat="1">
       <c r="B72" s="3"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -4008,7 +4005,7 @@
       <c r="L72" s="14"/>
       <c r="M72" s="3"/>
       <c r="N72" s="15"/>
-      <c r="O72" s="68" t="str">
+      <c r="O72" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4029,7 +4026,7 @@
       <c r="AD72" s="10"/>
       <c r="AE72" s="36"/>
     </row>
-    <row r="73" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:31" s="1" customFormat="1">
       <c r="B73" s="3"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -4043,7 +4040,7 @@
       <c r="L73" s="14"/>
       <c r="M73" s="3"/>
       <c r="N73" s="15"/>
-      <c r="O73" s="68" t="str">
+      <c r="O73" s="48" t="str">
         <f t="shared" ref="O73:O136" si="1">LEFT(B73,9)&amp;P73</f>
         <v/>
       </c>
@@ -4064,7 +4061,7 @@
       <c r="AD73" s="10"/>
       <c r="AE73" s="36"/>
     </row>
-    <row r="74" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:31" s="1" customFormat="1">
       <c r="B74" s="3"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -4078,7 +4075,7 @@
       <c r="L74" s="14"/>
       <c r="M74" s="3"/>
       <c r="N74" s="15"/>
-      <c r="O74" s="68" t="str">
+      <c r="O74" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4099,7 +4096,7 @@
       <c r="AD74" s="10"/>
       <c r="AE74" s="36"/>
     </row>
-    <row r="75" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:31" s="1" customFormat="1">
       <c r="B75" s="3"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -4113,7 +4110,7 @@
       <c r="L75" s="14"/>
       <c r="M75" s="3"/>
       <c r="N75" s="15"/>
-      <c r="O75" s="68" t="str">
+      <c r="O75" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4134,7 +4131,7 @@
       <c r="AD75" s="10"/>
       <c r="AE75" s="36"/>
     </row>
-    <row r="76" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:31" s="1" customFormat="1">
       <c r="B76" s="3"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -4148,7 +4145,7 @@
       <c r="L76" s="14"/>
       <c r="M76" s="3"/>
       <c r="N76" s="15"/>
-      <c r="O76" s="68" t="str">
+      <c r="O76" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4169,7 +4166,7 @@
       <c r="AD76" s="10"/>
       <c r="AE76" s="36"/>
     </row>
-    <row r="77" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:31" s="1" customFormat="1">
       <c r="B77" s="3"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -4183,7 +4180,7 @@
       <c r="L77" s="14"/>
       <c r="M77" s="3"/>
       <c r="N77" s="15"/>
-      <c r="O77" s="68" t="str">
+      <c r="O77" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4204,7 +4201,7 @@
       <c r="AD77" s="10"/>
       <c r="AE77" s="36"/>
     </row>
-    <row r="78" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:31" s="1" customFormat="1">
       <c r="B78" s="3"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -4218,7 +4215,7 @@
       <c r="L78" s="14"/>
       <c r="M78" s="3"/>
       <c r="N78" s="15"/>
-      <c r="O78" s="68" t="str">
+      <c r="O78" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4239,7 +4236,7 @@
       <c r="AD78" s="10"/>
       <c r="AE78" s="36"/>
     </row>
-    <row r="79" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:31" s="1" customFormat="1">
       <c r="B79" s="3"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -4253,7 +4250,7 @@
       <c r="L79" s="14"/>
       <c r="M79" s="3"/>
       <c r="N79" s="15"/>
-      <c r="O79" s="68" t="str">
+      <c r="O79" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4274,7 +4271,7 @@
       <c r="AD79" s="10"/>
       <c r="AE79" s="36"/>
     </row>
-    <row r="80" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:31" s="1" customFormat="1">
       <c r="B80" s="3"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -4288,7 +4285,7 @@
       <c r="L80" s="14"/>
       <c r="M80" s="3"/>
       <c r="N80" s="15"/>
-      <c r="O80" s="68" t="str">
+      <c r="O80" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4309,7 +4306,7 @@
       <c r="AD80" s="10"/>
       <c r="AE80" s="36"/>
     </row>
-    <row r="81" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:31" s="1" customFormat="1">
       <c r="B81" s="3"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -4323,7 +4320,7 @@
       <c r="L81" s="14"/>
       <c r="M81" s="3"/>
       <c r="N81" s="15"/>
-      <c r="O81" s="68" t="str">
+      <c r="O81" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4344,7 +4341,7 @@
       <c r="AD81" s="10"/>
       <c r="AE81" s="36"/>
     </row>
-    <row r="82" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:31" s="1" customFormat="1">
       <c r="B82" s="3"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -4358,7 +4355,7 @@
       <c r="L82" s="14"/>
       <c r="M82" s="3"/>
       <c r="N82" s="15"/>
-      <c r="O82" s="68" t="str">
+      <c r="O82" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4379,7 +4376,7 @@
       <c r="AD82" s="10"/>
       <c r="AE82" s="36"/>
     </row>
-    <row r="83" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:31" s="1" customFormat="1">
       <c r="B83" s="3"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
@@ -4393,7 +4390,7 @@
       <c r="L83" s="14"/>
       <c r="M83" s="3"/>
       <c r="N83" s="15"/>
-      <c r="O83" s="68" t="str">
+      <c r="O83" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4414,7 +4411,7 @@
       <c r="AD83" s="10"/>
       <c r="AE83" s="36"/>
     </row>
-    <row r="84" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:31" s="1" customFormat="1">
       <c r="B84" s="3"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -4428,7 +4425,7 @@
       <c r="L84" s="14"/>
       <c r="M84" s="3"/>
       <c r="N84" s="15"/>
-      <c r="O84" s="68" t="str">
+      <c r="O84" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4449,7 +4446,7 @@
       <c r="AD84" s="10"/>
       <c r="AE84" s="36"/>
     </row>
-    <row r="85" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:31" s="1" customFormat="1">
       <c r="B85" s="3"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -4463,7 +4460,7 @@
       <c r="L85" s="14"/>
       <c r="M85" s="3"/>
       <c r="N85" s="15"/>
-      <c r="O85" s="68" t="str">
+      <c r="O85" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4484,7 +4481,7 @@
       <c r="AD85" s="10"/>
       <c r="AE85" s="36"/>
     </row>
-    <row r="86" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:31" s="1" customFormat="1">
       <c r="B86" s="3"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -4498,7 +4495,7 @@
       <c r="L86" s="14"/>
       <c r="M86" s="3"/>
       <c r="N86" s="15"/>
-      <c r="O86" s="68" t="str">
+      <c r="O86" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4519,7 +4516,7 @@
       <c r="AD86" s="10"/>
       <c r="AE86" s="36"/>
     </row>
-    <row r="87" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:31" s="1" customFormat="1">
       <c r="B87" s="3"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -4533,7 +4530,7 @@
       <c r="L87" s="14"/>
       <c r="M87" s="3"/>
       <c r="N87" s="15"/>
-      <c r="O87" s="68" t="str">
+      <c r="O87" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4554,7 +4551,7 @@
       <c r="AD87" s="10"/>
       <c r="AE87" s="36"/>
     </row>
-    <row r="88" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:31" s="1" customFormat="1">
       <c r="B88" s="3"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -4568,7 +4565,7 @@
       <c r="L88" s="14"/>
       <c r="M88" s="3"/>
       <c r="N88" s="15"/>
-      <c r="O88" s="68" t="str">
+      <c r="O88" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4589,7 +4586,7 @@
       <c r="AD88" s="10"/>
       <c r="AE88" s="36"/>
     </row>
-    <row r="89" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:31" s="1" customFormat="1">
       <c r="B89" s="3"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -4603,7 +4600,7 @@
       <c r="L89" s="14"/>
       <c r="M89" s="3"/>
       <c r="N89" s="15"/>
-      <c r="O89" s="68" t="str">
+      <c r="O89" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4624,7 +4621,7 @@
       <c r="AD89" s="10"/>
       <c r="AE89" s="36"/>
     </row>
-    <row r="90" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:31" s="1" customFormat="1">
       <c r="B90" s="3"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -4638,7 +4635,7 @@
       <c r="L90" s="14"/>
       <c r="M90" s="3"/>
       <c r="N90" s="15"/>
-      <c r="O90" s="68" t="str">
+      <c r="O90" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4659,7 +4656,7 @@
       <c r="AD90" s="10"/>
       <c r="AE90" s="36"/>
     </row>
-    <row r="91" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:31" s="1" customFormat="1">
       <c r="B91" s="3"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -4673,7 +4670,7 @@
       <c r="L91" s="14"/>
       <c r="M91" s="3"/>
       <c r="N91" s="15"/>
-      <c r="O91" s="68" t="str">
+      <c r="O91" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4694,7 +4691,7 @@
       <c r="AD91" s="10"/>
       <c r="AE91" s="36"/>
     </row>
-    <row r="92" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:31" s="1" customFormat="1">
       <c r="B92" s="3"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -4708,7 +4705,7 @@
       <c r="L92" s="14"/>
       <c r="M92" s="3"/>
       <c r="N92" s="15"/>
-      <c r="O92" s="68" t="str">
+      <c r="O92" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4729,7 +4726,7 @@
       <c r="AD92" s="10"/>
       <c r="AE92" s="36"/>
     </row>
-    <row r="93" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:31" s="1" customFormat="1">
       <c r="B93" s="3"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -4743,7 +4740,7 @@
       <c r="L93" s="14"/>
       <c r="M93" s="3"/>
       <c r="N93" s="15"/>
-      <c r="O93" s="68" t="str">
+      <c r="O93" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4764,7 +4761,7 @@
       <c r="AD93" s="10"/>
       <c r="AE93" s="36"/>
     </row>
-    <row r="94" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:31" s="1" customFormat="1">
       <c r="B94" s="3"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -4778,7 +4775,7 @@
       <c r="L94" s="14"/>
       <c r="M94" s="3"/>
       <c r="N94" s="15"/>
-      <c r="O94" s="68" t="str">
+      <c r="O94" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4799,7 +4796,7 @@
       <c r="AD94" s="10"/>
       <c r="AE94" s="36"/>
     </row>
-    <row r="95" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:31" s="1" customFormat="1">
       <c r="B95" s="3"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -4813,7 +4810,7 @@
       <c r="L95" s="14"/>
       <c r="M95" s="3"/>
       <c r="N95" s="15"/>
-      <c r="O95" s="68" t="str">
+      <c r="O95" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4834,7 +4831,7 @@
       <c r="AD95" s="10"/>
       <c r="AE95" s="36"/>
     </row>
-    <row r="96" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:31" s="1" customFormat="1">
       <c r="B96" s="3"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -4848,7 +4845,7 @@
       <c r="L96" s="14"/>
       <c r="M96" s="3"/>
       <c r="N96" s="15"/>
-      <c r="O96" s="68" t="str">
+      <c r="O96" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4869,7 +4866,7 @@
       <c r="AD96" s="10"/>
       <c r="AE96" s="36"/>
     </row>
-    <row r="97" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:31" s="1" customFormat="1">
       <c r="B97" s="3"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -4883,7 +4880,7 @@
       <c r="L97" s="14"/>
       <c r="M97" s="3"/>
       <c r="N97" s="15"/>
-      <c r="O97" s="68" t="str">
+      <c r="O97" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4904,7 +4901,7 @@
       <c r="AD97" s="10"/>
       <c r="AE97" s="36"/>
     </row>
-    <row r="98" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:31" s="1" customFormat="1">
       <c r="B98" s="3"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -4918,7 +4915,7 @@
       <c r="L98" s="14"/>
       <c r="M98" s="3"/>
       <c r="N98" s="15"/>
-      <c r="O98" s="68" t="str">
+      <c r="O98" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4939,7 +4936,7 @@
       <c r="AD98" s="10"/>
       <c r="AE98" s="36"/>
     </row>
-    <row r="99" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:31" s="1" customFormat="1">
       <c r="B99" s="3"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -4953,7 +4950,7 @@
       <c r="L99" s="14"/>
       <c r="M99" s="3"/>
       <c r="N99" s="15"/>
-      <c r="O99" s="68" t="str">
+      <c r="O99" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4974,7 +4971,7 @@
       <c r="AD99" s="10"/>
       <c r="AE99" s="36"/>
     </row>
-    <row r="100" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:31" s="1" customFormat="1">
       <c r="B100" s="3"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -4988,7 +4985,7 @@
       <c r="L100" s="14"/>
       <c r="M100" s="3"/>
       <c r="N100" s="15"/>
-      <c r="O100" s="68" t="str">
+      <c r="O100" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5009,7 +5006,7 @@
       <c r="AD100" s="10"/>
       <c r="AE100" s="36"/>
     </row>
-    <row r="101" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:31" s="1" customFormat="1">
       <c r="B101" s="3"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -5023,7 +5020,7 @@
       <c r="L101" s="14"/>
       <c r="M101" s="3"/>
       <c r="N101" s="15"/>
-      <c r="O101" s="68" t="str">
+      <c r="O101" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5044,7 +5041,7 @@
       <c r="AD101" s="10"/>
       <c r="AE101" s="36"/>
     </row>
-    <row r="102" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:31" s="1" customFormat="1">
       <c r="B102" s="3"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
@@ -5058,7 +5055,7 @@
       <c r="L102" s="14"/>
       <c r="M102" s="3"/>
       <c r="N102" s="15"/>
-      <c r="O102" s="68" t="str">
+      <c r="O102" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5079,7 +5076,7 @@
       <c r="AD102" s="10"/>
       <c r="AE102" s="36"/>
     </row>
-    <row r="103" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:31" s="1" customFormat="1">
       <c r="B103" s="3"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
@@ -5093,7 +5090,7 @@
       <c r="L103" s="14"/>
       <c r="M103" s="3"/>
       <c r="N103" s="15"/>
-      <c r="O103" s="68" t="str">
+      <c r="O103" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5114,7 +5111,7 @@
       <c r="AD103" s="10"/>
       <c r="AE103" s="36"/>
     </row>
-    <row r="104" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:31" s="1" customFormat="1">
       <c r="B104" s="3"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
@@ -5128,7 +5125,7 @@
       <c r="L104" s="14"/>
       <c r="M104" s="3"/>
       <c r="N104" s="15"/>
-      <c r="O104" s="68" t="str">
+      <c r="O104" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5149,7 +5146,7 @@
       <c r="AD104" s="10"/>
       <c r="AE104" s="36"/>
     </row>
-    <row r="105" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:31" s="1" customFormat="1">
       <c r="B105" s="3"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
@@ -5163,7 +5160,7 @@
       <c r="L105" s="14"/>
       <c r="M105" s="3"/>
       <c r="N105" s="15"/>
-      <c r="O105" s="68" t="str">
+      <c r="O105" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5184,7 +5181,7 @@
       <c r="AD105" s="10"/>
       <c r="AE105" s="36"/>
     </row>
-    <row r="106" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:31" s="1" customFormat="1">
       <c r="B106" s="3"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
@@ -5198,7 +5195,7 @@
       <c r="L106" s="14"/>
       <c r="M106" s="3"/>
       <c r="N106" s="15"/>
-      <c r="O106" s="68" t="str">
+      <c r="O106" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5219,7 +5216,7 @@
       <c r="AD106" s="10"/>
       <c r="AE106" s="36"/>
     </row>
-    <row r="107" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:31" s="1" customFormat="1">
       <c r="B107" s="3"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
@@ -5233,7 +5230,7 @@
       <c r="L107" s="14"/>
       <c r="M107" s="3"/>
       <c r="N107" s="15"/>
-      <c r="O107" s="68" t="str">
+      <c r="O107" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5254,7 +5251,7 @@
       <c r="AD107" s="10"/>
       <c r="AE107" s="36"/>
     </row>
-    <row r="108" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:31" s="1" customFormat="1">
       <c r="B108" s="3"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
@@ -5268,7 +5265,7 @@
       <c r="L108" s="14"/>
       <c r="M108" s="3"/>
       <c r="N108" s="15"/>
-      <c r="O108" s="68" t="str">
+      <c r="O108" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5289,7 +5286,7 @@
       <c r="AD108" s="10"/>
       <c r="AE108" s="36"/>
     </row>
-    <row r="109" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:31" s="1" customFormat="1">
       <c r="B109" s="3"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
@@ -5303,7 +5300,7 @@
       <c r="L109" s="14"/>
       <c r="M109" s="3"/>
       <c r="N109" s="15"/>
-      <c r="O109" s="68" t="str">
+      <c r="O109" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5324,7 +5321,7 @@
       <c r="AD109" s="10"/>
       <c r="AE109" s="36"/>
     </row>
-    <row r="110" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:31" s="1" customFormat="1">
       <c r="B110" s="3"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
@@ -5338,7 +5335,7 @@
       <c r="L110" s="14"/>
       <c r="M110" s="3"/>
       <c r="N110" s="15"/>
-      <c r="O110" s="68" t="str">
+      <c r="O110" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5359,7 +5356,7 @@
       <c r="AD110" s="10"/>
       <c r="AE110" s="36"/>
     </row>
-    <row r="111" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:31" s="1" customFormat="1">
       <c r="B111" s="3"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -5373,7 +5370,7 @@
       <c r="L111" s="14"/>
       <c r="M111" s="3"/>
       <c r="N111" s="15"/>
-      <c r="O111" s="68" t="str">
+      <c r="O111" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5394,7 +5391,7 @@
       <c r="AD111" s="10"/>
       <c r="AE111" s="36"/>
     </row>
-    <row r="112" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:31" s="1" customFormat="1">
       <c r="B112" s="3"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -5408,7 +5405,7 @@
       <c r="L112" s="14"/>
       <c r="M112" s="3"/>
       <c r="N112" s="15"/>
-      <c r="O112" s="68" t="str">
+      <c r="O112" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5429,7 +5426,7 @@
       <c r="AD112" s="10"/>
       <c r="AE112" s="36"/>
     </row>
-    <row r="113" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:31" s="1" customFormat="1">
       <c r="B113" s="3"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
@@ -5443,7 +5440,7 @@
       <c r="L113" s="14"/>
       <c r="M113" s="3"/>
       <c r="N113" s="15"/>
-      <c r="O113" s="68" t="str">
+      <c r="O113" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5464,7 +5461,7 @@
       <c r="AD113" s="10"/>
       <c r="AE113" s="36"/>
     </row>
-    <row r="114" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:31" s="1" customFormat="1">
       <c r="B114" s="3"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
@@ -5478,7 +5475,7 @@
       <c r="L114" s="14"/>
       <c r="M114" s="3"/>
       <c r="N114" s="15"/>
-      <c r="O114" s="68" t="str">
+      <c r="O114" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5499,7 +5496,7 @@
       <c r="AD114" s="10"/>
       <c r="AE114" s="36"/>
     </row>
-    <row r="115" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:31" s="1" customFormat="1">
       <c r="B115" s="3"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
@@ -5513,7 +5510,7 @@
       <c r="L115" s="14"/>
       <c r="M115" s="3"/>
       <c r="N115" s="15"/>
-      <c r="O115" s="68" t="str">
+      <c r="O115" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5534,7 +5531,7 @@
       <c r="AD115" s="10"/>
       <c r="AE115" s="36"/>
     </row>
-    <row r="116" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:31" s="1" customFormat="1">
       <c r="B116" s="3"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
@@ -5548,7 +5545,7 @@
       <c r="L116" s="14"/>
       <c r="M116" s="3"/>
       <c r="N116" s="15"/>
-      <c r="O116" s="68" t="str">
+      <c r="O116" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5569,7 +5566,7 @@
       <c r="AD116" s="10"/>
       <c r="AE116" s="36"/>
     </row>
-    <row r="117" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:31" s="1" customFormat="1">
       <c r="B117" s="3"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
@@ -5583,7 +5580,7 @@
       <c r="L117" s="14"/>
       <c r="M117" s="3"/>
       <c r="N117" s="15"/>
-      <c r="O117" s="68" t="str">
+      <c r="O117" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5604,7 +5601,7 @@
       <c r="AD117" s="10"/>
       <c r="AE117" s="36"/>
     </row>
-    <row r="118" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:31" s="1" customFormat="1">
       <c r="B118" s="3"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
@@ -5618,7 +5615,7 @@
       <c r="L118" s="14"/>
       <c r="M118" s="3"/>
       <c r="N118" s="15"/>
-      <c r="O118" s="68" t="str">
+      <c r="O118" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5639,7 +5636,7 @@
       <c r="AD118" s="10"/>
       <c r="AE118" s="36"/>
     </row>
-    <row r="119" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:31" s="1" customFormat="1">
       <c r="B119" s="3"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
@@ -5653,7 +5650,7 @@
       <c r="L119" s="14"/>
       <c r="M119" s="3"/>
       <c r="N119" s="15"/>
-      <c r="O119" s="68" t="str">
+      <c r="O119" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5674,7 +5671,7 @@
       <c r="AD119" s="10"/>
       <c r="AE119" s="36"/>
     </row>
-    <row r="120" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:31" s="1" customFormat="1">
       <c r="B120" s="3"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
@@ -5688,7 +5685,7 @@
       <c r="L120" s="14"/>
       <c r="M120" s="3"/>
       <c r="N120" s="15"/>
-      <c r="O120" s="68" t="str">
+      <c r="O120" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5709,7 +5706,7 @@
       <c r="AD120" s="10"/>
       <c r="AE120" s="36"/>
     </row>
-    <row r="121" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:31" s="1" customFormat="1">
       <c r="B121" s="3"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
@@ -5723,7 +5720,7 @@
       <c r="L121" s="14"/>
       <c r="M121" s="3"/>
       <c r="N121" s="15"/>
-      <c r="O121" s="68" t="str">
+      <c r="O121" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5744,7 +5741,7 @@
       <c r="AD121" s="10"/>
       <c r="AE121" s="36"/>
     </row>
-    <row r="122" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:31" s="1" customFormat="1">
       <c r="B122" s="3"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
@@ -5758,7 +5755,7 @@
       <c r="L122" s="14"/>
       <c r="M122" s="3"/>
       <c r="N122" s="15"/>
-      <c r="O122" s="68" t="str">
+      <c r="O122" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5779,7 +5776,7 @@
       <c r="AD122" s="10"/>
       <c r="AE122" s="36"/>
     </row>
-    <row r="123" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:31" s="1" customFormat="1">
       <c r="B123" s="3"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
@@ -5793,7 +5790,7 @@
       <c r="L123" s="14"/>
       <c r="M123" s="3"/>
       <c r="N123" s="15"/>
-      <c r="O123" s="68" t="str">
+      <c r="O123" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5814,7 +5811,7 @@
       <c r="AD123" s="10"/>
       <c r="AE123" s="36"/>
     </row>
-    <row r="124" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:31" s="1" customFormat="1">
       <c r="B124" s="3"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
@@ -5828,7 +5825,7 @@
       <c r="L124" s="14"/>
       <c r="M124" s="3"/>
       <c r="N124" s="15"/>
-      <c r="O124" s="68" t="str">
+      <c r="O124" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5849,7 +5846,7 @@
       <c r="AD124" s="10"/>
       <c r="AE124" s="36"/>
     </row>
-    <row r="125" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:31" s="1" customFormat="1">
       <c r="B125" s="3"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
@@ -5863,7 +5860,7 @@
       <c r="L125" s="14"/>
       <c r="M125" s="3"/>
       <c r="N125" s="15"/>
-      <c r="O125" s="68" t="str">
+      <c r="O125" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5884,7 +5881,7 @@
       <c r="AD125" s="10"/>
       <c r="AE125" s="36"/>
     </row>
-    <row r="126" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:31" s="1" customFormat="1">
       <c r="B126" s="3"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
@@ -5898,7 +5895,7 @@
       <c r="L126" s="14"/>
       <c r="M126" s="3"/>
       <c r="N126" s="15"/>
-      <c r="O126" s="68" t="str">
+      <c r="O126" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5919,7 +5916,7 @@
       <c r="AD126" s="10"/>
       <c r="AE126" s="36"/>
     </row>
-    <row r="127" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:31" s="1" customFormat="1">
       <c r="B127" s="3"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
@@ -5933,7 +5930,7 @@
       <c r="L127" s="14"/>
       <c r="M127" s="3"/>
       <c r="N127" s="15"/>
-      <c r="O127" s="68" t="str">
+      <c r="O127" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5954,7 +5951,7 @@
       <c r="AD127" s="10"/>
       <c r="AE127" s="36"/>
     </row>
-    <row r="128" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:31" s="1" customFormat="1">
       <c r="B128" s="3"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -5968,7 +5965,7 @@
       <c r="L128" s="14"/>
       <c r="M128" s="3"/>
       <c r="N128" s="15"/>
-      <c r="O128" s="68" t="str">
+      <c r="O128" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5989,7 +5986,7 @@
       <c r="AD128" s="10"/>
       <c r="AE128" s="36"/>
     </row>
-    <row r="129" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:31" s="1" customFormat="1">
       <c r="B129" s="3"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
@@ -6003,7 +6000,7 @@
       <c r="L129" s="14"/>
       <c r="M129" s="3"/>
       <c r="N129" s="15"/>
-      <c r="O129" s="68" t="str">
+      <c r="O129" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6024,7 +6021,7 @@
       <c r="AD129" s="10"/>
       <c r="AE129" s="36"/>
     </row>
-    <row r="130" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:31" s="1" customFormat="1">
       <c r="B130" s="3"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
@@ -6038,7 +6035,7 @@
       <c r="L130" s="14"/>
       <c r="M130" s="3"/>
       <c r="N130" s="15"/>
-      <c r="O130" s="68" t="str">
+      <c r="O130" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6059,7 +6056,7 @@
       <c r="AD130" s="10"/>
       <c r="AE130" s="36"/>
     </row>
-    <row r="131" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:31" s="1" customFormat="1">
       <c r="B131" s="3"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
@@ -6073,7 +6070,7 @@
       <c r="L131" s="14"/>
       <c r="M131" s="3"/>
       <c r="N131" s="15"/>
-      <c r="O131" s="68" t="str">
+      <c r="O131" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6094,7 +6091,7 @@
       <c r="AD131" s="10"/>
       <c r="AE131" s="36"/>
     </row>
-    <row r="132" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:31" s="1" customFormat="1">
       <c r="B132" s="3"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
@@ -6108,7 +6105,7 @@
       <c r="L132" s="14"/>
       <c r="M132" s="3"/>
       <c r="N132" s="15"/>
-      <c r="O132" s="68" t="str">
+      <c r="O132" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6129,7 +6126,7 @@
       <c r="AD132" s="10"/>
       <c r="AE132" s="36"/>
     </row>
-    <row r="133" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:31" s="1" customFormat="1">
       <c r="B133" s="3"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
@@ -6143,7 +6140,7 @@
       <c r="L133" s="14"/>
       <c r="M133" s="3"/>
       <c r="N133" s="15"/>
-      <c r="O133" s="68" t="str">
+      <c r="O133" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6164,7 +6161,7 @@
       <c r="AD133" s="10"/>
       <c r="AE133" s="36"/>
     </row>
-    <row r="134" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:31" s="1" customFormat="1">
       <c r="B134" s="3"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
@@ -6178,7 +6175,7 @@
       <c r="L134" s="14"/>
       <c r="M134" s="3"/>
       <c r="N134" s="15"/>
-      <c r="O134" s="68" t="str">
+      <c r="O134" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6199,7 +6196,7 @@
       <c r="AD134" s="10"/>
       <c r="AE134" s="36"/>
     </row>
-    <row r="135" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:31" s="1" customFormat="1">
       <c r="B135" s="3"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
@@ -6213,7 +6210,7 @@
       <c r="L135" s="14"/>
       <c r="M135" s="3"/>
       <c r="N135" s="15"/>
-      <c r="O135" s="68" t="str">
+      <c r="O135" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6234,7 +6231,7 @@
       <c r="AD135" s="10"/>
       <c r="AE135" s="36"/>
     </row>
-    <row r="136" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:31" s="1" customFormat="1">
       <c r="B136" s="3"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -6248,7 +6245,7 @@
       <c r="L136" s="14"/>
       <c r="M136" s="3"/>
       <c r="N136" s="15"/>
-      <c r="O136" s="68" t="str">
+      <c r="O136" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6269,7 +6266,7 @@
       <c r="AD136" s="10"/>
       <c r="AE136" s="36"/>
     </row>
-    <row r="137" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:31" s="1" customFormat="1">
       <c r="B137" s="3"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
@@ -6283,7 +6280,7 @@
       <c r="L137" s="14"/>
       <c r="M137" s="3"/>
       <c r="N137" s="15"/>
-      <c r="O137" s="68" t="str">
+      <c r="O137" s="48" t="str">
         <f t="shared" ref="O137:O200" si="2">LEFT(B137,9)&amp;P137</f>
         <v/>
       </c>
@@ -6304,7 +6301,7 @@
       <c r="AD137" s="10"/>
       <c r="AE137" s="36"/>
     </row>
-    <row r="138" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:31" s="1" customFormat="1">
       <c r="B138" s="3"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
@@ -6318,7 +6315,7 @@
       <c r="L138" s="14"/>
       <c r="M138" s="3"/>
       <c r="N138" s="15"/>
-      <c r="O138" s="68" t="str">
+      <c r="O138" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6339,7 +6336,7 @@
       <c r="AD138" s="10"/>
       <c r="AE138" s="36"/>
     </row>
-    <row r="139" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:31" s="1" customFormat="1">
       <c r="B139" s="3"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
@@ -6353,7 +6350,7 @@
       <c r="L139" s="14"/>
       <c r="M139" s="3"/>
       <c r="N139" s="15"/>
-      <c r="O139" s="68" t="str">
+      <c r="O139" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6374,7 +6371,7 @@
       <c r="AD139" s="10"/>
       <c r="AE139" s="36"/>
     </row>
-    <row r="140" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:31" s="1" customFormat="1">
       <c r="B140" s="3"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
@@ -6388,7 +6385,7 @@
       <c r="L140" s="14"/>
       <c r="M140" s="3"/>
       <c r="N140" s="15"/>
-      <c r="O140" s="68" t="str">
+      <c r="O140" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6409,7 +6406,7 @@
       <c r="AD140" s="10"/>
       <c r="AE140" s="36"/>
     </row>
-    <row r="141" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:31" s="1" customFormat="1">
       <c r="B141" s="3"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
@@ -6423,7 +6420,7 @@
       <c r="L141" s="14"/>
       <c r="M141" s="3"/>
       <c r="N141" s="15"/>
-      <c r="O141" s="68" t="str">
+      <c r="O141" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6444,7 +6441,7 @@
       <c r="AD141" s="10"/>
       <c r="AE141" s="36"/>
     </row>
-    <row r="142" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:31" s="1" customFormat="1">
       <c r="B142" s="3"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
@@ -6458,7 +6455,7 @@
       <c r="L142" s="14"/>
       <c r="M142" s="3"/>
       <c r="N142" s="15"/>
-      <c r="O142" s="68" t="str">
+      <c r="O142" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6479,7 +6476,7 @@
       <c r="AD142" s="10"/>
       <c r="AE142" s="36"/>
     </row>
-    <row r="143" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:31" s="1" customFormat="1">
       <c r="B143" s="3"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
@@ -6493,7 +6490,7 @@
       <c r="L143" s="14"/>
       <c r="M143" s="3"/>
       <c r="N143" s="15"/>
-      <c r="O143" s="68" t="str">
+      <c r="O143" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6514,7 +6511,7 @@
       <c r="AD143" s="10"/>
       <c r="AE143" s="36"/>
     </row>
-    <row r="144" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:31" s="1" customFormat="1">
       <c r="B144" s="3"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
@@ -6528,7 +6525,7 @@
       <c r="L144" s="14"/>
       <c r="M144" s="3"/>
       <c r="N144" s="15"/>
-      <c r="O144" s="68" t="str">
+      <c r="O144" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6549,7 +6546,7 @@
       <c r="AD144" s="10"/>
       <c r="AE144" s="36"/>
     </row>
-    <row r="145" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:31" s="1" customFormat="1">
       <c r="B145" s="3"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
@@ -6563,7 +6560,7 @@
       <c r="L145" s="14"/>
       <c r="M145" s="3"/>
       <c r="N145" s="15"/>
-      <c r="O145" s="68" t="str">
+      <c r="O145" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6584,7 +6581,7 @@
       <c r="AD145" s="10"/>
       <c r="AE145" s="36"/>
     </row>
-    <row r="146" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:31" s="1" customFormat="1">
       <c r="B146" s="3"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -6598,7 +6595,7 @@
       <c r="L146" s="14"/>
       <c r="M146" s="3"/>
       <c r="N146" s="15"/>
-      <c r="O146" s="68" t="str">
+      <c r="O146" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6619,7 +6616,7 @@
       <c r="AD146" s="10"/>
       <c r="AE146" s="36"/>
     </row>
-    <row r="147" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:31" s="1" customFormat="1">
       <c r="B147" s="3"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
@@ -6633,7 +6630,7 @@
       <c r="L147" s="14"/>
       <c r="M147" s="3"/>
       <c r="N147" s="15"/>
-      <c r="O147" s="68" t="str">
+      <c r="O147" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6654,7 +6651,7 @@
       <c r="AD147" s="10"/>
       <c r="AE147" s="36"/>
     </row>
-    <row r="148" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:31" s="1" customFormat="1">
       <c r="B148" s="3"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
@@ -6668,7 +6665,7 @@
       <c r="L148" s="14"/>
       <c r="M148" s="3"/>
       <c r="N148" s="15"/>
-      <c r="O148" s="68" t="str">
+      <c r="O148" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6689,7 +6686,7 @@
       <c r="AD148" s="10"/>
       <c r="AE148" s="36"/>
     </row>
-    <row r="149" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:31" s="1" customFormat="1">
       <c r="B149" s="3"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
@@ -6703,7 +6700,7 @@
       <c r="L149" s="14"/>
       <c r="M149" s="3"/>
       <c r="N149" s="15"/>
-      <c r="O149" s="68" t="str">
+      <c r="O149" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6724,7 +6721,7 @@
       <c r="AD149" s="10"/>
       <c r="AE149" s="36"/>
     </row>
-    <row r="150" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:31" s="1" customFormat="1">
       <c r="B150" s="3"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
@@ -6738,7 +6735,7 @@
       <c r="L150" s="14"/>
       <c r="M150" s="3"/>
       <c r="N150" s="15"/>
-      <c r="O150" s="68" t="str">
+      <c r="O150" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6759,7 +6756,7 @@
       <c r="AD150" s="10"/>
       <c r="AE150" s="36"/>
     </row>
-    <row r="151" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:31" s="1" customFormat="1">
       <c r="B151" s="3"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
@@ -6773,7 +6770,7 @@
       <c r="L151" s="14"/>
       <c r="M151" s="3"/>
       <c r="N151" s="15"/>
-      <c r="O151" s="68" t="str">
+      <c r="O151" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6794,7 +6791,7 @@
       <c r="AD151" s="10"/>
       <c r="AE151" s="36"/>
     </row>
-    <row r="152" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:31" s="1" customFormat="1">
       <c r="B152" s="3"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
@@ -6808,7 +6805,7 @@
       <c r="L152" s="14"/>
       <c r="M152" s="3"/>
       <c r="N152" s="15"/>
-      <c r="O152" s="68" t="str">
+      <c r="O152" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6829,7 +6826,7 @@
       <c r="AD152" s="10"/>
       <c r="AE152" s="36"/>
     </row>
-    <row r="153" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:31" s="1" customFormat="1">
       <c r="B153" s="3"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
@@ -6843,7 +6840,7 @@
       <c r="L153" s="14"/>
       <c r="M153" s="3"/>
       <c r="N153" s="15"/>
-      <c r="O153" s="68" t="str">
+      <c r="O153" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6864,7 +6861,7 @@
       <c r="AD153" s="10"/>
       <c r="AE153" s="36"/>
     </row>
-    <row r="154" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:31" s="1" customFormat="1">
       <c r="B154" s="3"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
@@ -6878,7 +6875,7 @@
       <c r="L154" s="14"/>
       <c r="M154" s="3"/>
       <c r="N154" s="15"/>
-      <c r="O154" s="68" t="str">
+      <c r="O154" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6899,7 +6896,7 @@
       <c r="AD154" s="10"/>
       <c r="AE154" s="36"/>
     </row>
-    <row r="155" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:31" s="1" customFormat="1">
       <c r="B155" s="3"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
@@ -6913,7 +6910,7 @@
       <c r="L155" s="14"/>
       <c r="M155" s="3"/>
       <c r="N155" s="15"/>
-      <c r="O155" s="68" t="str">
+      <c r="O155" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6934,7 +6931,7 @@
       <c r="AD155" s="10"/>
       <c r="AE155" s="36"/>
     </row>
-    <row r="156" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:31" s="1" customFormat="1">
       <c r="B156" s="3"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
@@ -6948,7 +6945,7 @@
       <c r="L156" s="14"/>
       <c r="M156" s="3"/>
       <c r="N156" s="15"/>
-      <c r="O156" s="68" t="str">
+      <c r="O156" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6969,7 +6966,7 @@
       <c r="AD156" s="10"/>
       <c r="AE156" s="36"/>
     </row>
-    <row r="157" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:31" s="1" customFormat="1">
       <c r="B157" s="3"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
@@ -6983,7 +6980,7 @@
       <c r="L157" s="14"/>
       <c r="M157" s="3"/>
       <c r="N157" s="15"/>
-      <c r="O157" s="68" t="str">
+      <c r="O157" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7004,7 +7001,7 @@
       <c r="AD157" s="10"/>
       <c r="AE157" s="36"/>
     </row>
-    <row r="158" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:31" s="1" customFormat="1">
       <c r="B158" s="3"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
@@ -7018,7 +7015,7 @@
       <c r="L158" s="14"/>
       <c r="M158" s="3"/>
       <c r="N158" s="15"/>
-      <c r="O158" s="68" t="str">
+      <c r="O158" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7039,7 +7036,7 @@
       <c r="AD158" s="10"/>
       <c r="AE158" s="36"/>
     </row>
-    <row r="159" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:31" s="1" customFormat="1">
       <c r="B159" s="3"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
@@ -7053,7 +7050,7 @@
       <c r="L159" s="14"/>
       <c r="M159" s="3"/>
       <c r="N159" s="15"/>
-      <c r="O159" s="68" t="str">
+      <c r="O159" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7074,7 +7071,7 @@
       <c r="AD159" s="10"/>
       <c r="AE159" s="36"/>
     </row>
-    <row r="160" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:31" s="1" customFormat="1">
       <c r="B160" s="3"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
@@ -7088,7 +7085,7 @@
       <c r="L160" s="14"/>
       <c r="M160" s="3"/>
       <c r="N160" s="15"/>
-      <c r="O160" s="68" t="str">
+      <c r="O160" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7109,7 +7106,7 @@
       <c r="AD160" s="10"/>
       <c r="AE160" s="36"/>
     </row>
-    <row r="161" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:31" s="1" customFormat="1">
       <c r="B161" s="3"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
@@ -7123,7 +7120,7 @@
       <c r="L161" s="14"/>
       <c r="M161" s="3"/>
       <c r="N161" s="15"/>
-      <c r="O161" s="68" t="str">
+      <c r="O161" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7144,7 +7141,7 @@
       <c r="AD161" s="10"/>
       <c r="AE161" s="36"/>
     </row>
-    <row r="162" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:31" s="1" customFormat="1">
       <c r="B162" s="3"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
@@ -7158,7 +7155,7 @@
       <c r="L162" s="14"/>
       <c r="M162" s="3"/>
       <c r="N162" s="15"/>
-      <c r="O162" s="68" t="str">
+      <c r="O162" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7179,7 +7176,7 @@
       <c r="AD162" s="10"/>
       <c r="AE162" s="36"/>
     </row>
-    <row r="163" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:31" s="1" customFormat="1">
       <c r="B163" s="3"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
@@ -7193,7 +7190,7 @@
       <c r="L163" s="14"/>
       <c r="M163" s="3"/>
       <c r="N163" s="15"/>
-      <c r="O163" s="68" t="str">
+      <c r="O163" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7214,7 +7211,7 @@
       <c r="AD163" s="10"/>
       <c r="AE163" s="36"/>
     </row>
-    <row r="164" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:31" s="1" customFormat="1">
       <c r="B164" s="3"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
@@ -7228,7 +7225,7 @@
       <c r="L164" s="14"/>
       <c r="M164" s="3"/>
       <c r="N164" s="15"/>
-      <c r="O164" s="68" t="str">
+      <c r="O164" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7249,7 +7246,7 @@
       <c r="AD164" s="10"/>
       <c r="AE164" s="36"/>
     </row>
-    <row r="165" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:31" s="1" customFormat="1">
       <c r="B165" s="3"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
@@ -7263,7 +7260,7 @@
       <c r="L165" s="14"/>
       <c r="M165" s="3"/>
       <c r="N165" s="15"/>
-      <c r="O165" s="68" t="str">
+      <c r="O165" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7284,7 +7281,7 @@
       <c r="AD165" s="10"/>
       <c r="AE165" s="36"/>
     </row>
-    <row r="166" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:31" s="1" customFormat="1">
       <c r="B166" s="3"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
@@ -7298,7 +7295,7 @@
       <c r="L166" s="14"/>
       <c r="M166" s="3"/>
       <c r="N166" s="15"/>
-      <c r="O166" s="68" t="str">
+      <c r="O166" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7319,7 +7316,7 @@
       <c r="AD166" s="10"/>
       <c r="AE166" s="36"/>
     </row>
-    <row r="167" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:31" s="1" customFormat="1">
       <c r="B167" s="3"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
@@ -7333,7 +7330,7 @@
       <c r="L167" s="14"/>
       <c r="M167" s="3"/>
       <c r="N167" s="15"/>
-      <c r="O167" s="68" t="str">
+      <c r="O167" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7354,7 +7351,7 @@
       <c r="AD167" s="10"/>
       <c r="AE167" s="36"/>
     </row>
-    <row r="168" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:31" s="1" customFormat="1">
       <c r="B168" s="3"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
@@ -7368,7 +7365,7 @@
       <c r="L168" s="14"/>
       <c r="M168" s="3"/>
       <c r="N168" s="15"/>
-      <c r="O168" s="68" t="str">
+      <c r="O168" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7389,7 +7386,7 @@
       <c r="AD168" s="10"/>
       <c r="AE168" s="36"/>
     </row>
-    <row r="169" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:31" s="1" customFormat="1">
       <c r="B169" s="3"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
@@ -7403,7 +7400,7 @@
       <c r="L169" s="14"/>
       <c r="M169" s="3"/>
       <c r="N169" s="15"/>
-      <c r="O169" s="68" t="str">
+      <c r="O169" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7424,7 +7421,7 @@
       <c r="AD169" s="10"/>
       <c r="AE169" s="36"/>
     </row>
-    <row r="170" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:31" s="1" customFormat="1">
       <c r="B170" s="3"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
@@ -7438,7 +7435,7 @@
       <c r="L170" s="14"/>
       <c r="M170" s="3"/>
       <c r="N170" s="15"/>
-      <c r="O170" s="68" t="str">
+      <c r="O170" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7459,7 +7456,7 @@
       <c r="AD170" s="10"/>
       <c r="AE170" s="36"/>
     </row>
-    <row r="171" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:31" s="1" customFormat="1">
       <c r="B171" s="3"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
@@ -7473,7 +7470,7 @@
       <c r="L171" s="14"/>
       <c r="M171" s="3"/>
       <c r="N171" s="15"/>
-      <c r="O171" s="68" t="str">
+      <c r="O171" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7494,7 +7491,7 @@
       <c r="AD171" s="10"/>
       <c r="AE171" s="36"/>
     </row>
-    <row r="172" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:31" s="1" customFormat="1">
       <c r="B172" s="3"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
@@ -7508,7 +7505,7 @@
       <c r="L172" s="14"/>
       <c r="M172" s="3"/>
       <c r="N172" s="15"/>
-      <c r="O172" s="68" t="str">
+      <c r="O172" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7529,7 +7526,7 @@
       <c r="AD172" s="10"/>
       <c r="AE172" s="36"/>
     </row>
-    <row r="173" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:31" s="1" customFormat="1">
       <c r="B173" s="3"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
@@ -7543,7 +7540,7 @@
       <c r="L173" s="14"/>
       <c r="M173" s="3"/>
       <c r="N173" s="15"/>
-      <c r="O173" s="68" t="str">
+      <c r="O173" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7564,7 +7561,7 @@
       <c r="AD173" s="10"/>
       <c r="AE173" s="36"/>
     </row>
-    <row r="174" spans="2:31" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:31" s="1" customFormat="1" ht="33" customHeight="1">
       <c r="B174" s="3"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
@@ -7578,7 +7575,7 @@
       <c r="L174" s="14"/>
       <c r="M174" s="3"/>
       <c r="N174" s="15"/>
-      <c r="O174" s="68" t="str">
+      <c r="O174" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7599,7 +7596,7 @@
       <c r="AD174" s="10"/>
       <c r="AE174" s="36"/>
     </row>
-    <row r="175" spans="2:31" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:31" s="1" customFormat="1" ht="33" customHeight="1">
       <c r="B175" s="3"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
@@ -7613,7 +7610,7 @@
       <c r="L175" s="14"/>
       <c r="M175" s="3"/>
       <c r="N175" s="15"/>
-      <c r="O175" s="68" t="str">
+      <c r="O175" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7634,7 +7631,7 @@
       <c r="AD175" s="10"/>
       <c r="AE175" s="36"/>
     </row>
-    <row r="176" spans="2:31" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:31" s="1" customFormat="1" ht="33" customHeight="1">
       <c r="B176" s="3"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
@@ -7648,7 +7645,7 @@
       <c r="L176" s="14"/>
       <c r="M176" s="3"/>
       <c r="N176" s="15"/>
-      <c r="O176" s="68" t="str">
+      <c r="O176" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7669,7 +7666,7 @@
       <c r="AD176" s="10"/>
       <c r="AE176" s="36"/>
     </row>
-    <row r="177" spans="2:31" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:31" s="1" customFormat="1" ht="33" customHeight="1">
       <c r="B177" s="3"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
@@ -7683,7 +7680,7 @@
       <c r="L177" s="14"/>
       <c r="M177" s="3"/>
       <c r="N177" s="15"/>
-      <c r="O177" s="68" t="str">
+      <c r="O177" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7704,7 +7701,7 @@
       <c r="AD177" s="10"/>
       <c r="AE177" s="36"/>
     </row>
-    <row r="178" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:31" s="1" customFormat="1">
       <c r="B178" s="3"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
@@ -7718,7 +7715,7 @@
       <c r="L178" s="14"/>
       <c r="M178" s="3"/>
       <c r="N178" s="15"/>
-      <c r="O178" s="68" t="str">
+      <c r="O178" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7739,7 +7736,7 @@
       <c r="AD178" s="10"/>
       <c r="AE178" s="36"/>
     </row>
-    <row r="179" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:31" s="1" customFormat="1">
       <c r="B179" s="3"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
@@ -7753,7 +7750,7 @@
       <c r="L179" s="14"/>
       <c r="M179" s="3"/>
       <c r="N179" s="15"/>
-      <c r="O179" s="68" t="str">
+      <c r="O179" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7774,7 +7771,7 @@
       <c r="AD179" s="10"/>
       <c r="AE179" s="36"/>
     </row>
-    <row r="180" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:31" s="1" customFormat="1">
       <c r="B180" s="3"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
@@ -7788,7 +7785,7 @@
       <c r="L180" s="14"/>
       <c r="M180" s="3"/>
       <c r="N180" s="15"/>
-      <c r="O180" s="68" t="str">
+      <c r="O180" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7809,7 +7806,7 @@
       <c r="AD180" s="10"/>
       <c r="AE180" s="36"/>
     </row>
-    <row r="181" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:31" s="1" customFormat="1">
       <c r="B181" s="3"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
@@ -7823,7 +7820,7 @@
       <c r="L181" s="14"/>
       <c r="M181" s="3"/>
       <c r="N181" s="15"/>
-      <c r="O181" s="68" t="str">
+      <c r="O181" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7844,7 +7841,7 @@
       <c r="AD181" s="10"/>
       <c r="AE181" s="36"/>
     </row>
-    <row r="182" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:31" s="1" customFormat="1">
       <c r="B182" s="3"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
@@ -7858,7 +7855,7 @@
       <c r="L182" s="14"/>
       <c r="M182" s="3"/>
       <c r="N182" s="15"/>
-      <c r="O182" s="68" t="str">
+      <c r="O182" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7879,7 +7876,7 @@
       <c r="AD182" s="10"/>
       <c r="AE182" s="36"/>
     </row>
-    <row r="183" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:31" s="1" customFormat="1">
       <c r="B183" s="3"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
@@ -7893,7 +7890,7 @@
       <c r="L183" s="14"/>
       <c r="M183" s="3"/>
       <c r="N183" s="15"/>
-      <c r="O183" s="68" t="str">
+      <c r="O183" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7914,7 +7911,7 @@
       <c r="AD183" s="10"/>
       <c r="AE183" s="36"/>
     </row>
-    <row r="184" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:31" s="1" customFormat="1">
       <c r="B184" s="3"/>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
@@ -7928,7 +7925,7 @@
       <c r="L184" s="14"/>
       <c r="M184" s="3"/>
       <c r="N184" s="15"/>
-      <c r="O184" s="68" t="str">
+      <c r="O184" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7949,7 +7946,7 @@
       <c r="AD184" s="10"/>
       <c r="AE184" s="36"/>
     </row>
-    <row r="185" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:31" s="1" customFormat="1">
       <c r="B185" s="3"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
@@ -7963,7 +7960,7 @@
       <c r="L185" s="14"/>
       <c r="M185" s="3"/>
       <c r="N185" s="15"/>
-      <c r="O185" s="68" t="str">
+      <c r="O185" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7984,7 +7981,7 @@
       <c r="AD185" s="10"/>
       <c r="AE185" s="36"/>
     </row>
-    <row r="186" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:31" s="1" customFormat="1">
       <c r="B186" s="3"/>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
@@ -7998,7 +7995,7 @@
       <c r="L186" s="14"/>
       <c r="M186" s="3"/>
       <c r="N186" s="15"/>
-      <c r="O186" s="68" t="str">
+      <c r="O186" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -8019,7 +8016,7 @@
       <c r="AD186" s="10"/>
       <c r="AE186" s="36"/>
     </row>
-    <row r="187" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:31" s="1" customFormat="1">
       <c r="B187" s="3"/>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
@@ -8033,7 +8030,7 @@
       <c r="L187" s="14"/>
       <c r="M187" s="3"/>
       <c r="N187" s="15"/>
-      <c r="O187" s="68" t="str">
+      <c r="O187" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -8054,7 +8051,7 @@
       <c r="AD187" s="10"/>
       <c r="AE187" s="36"/>
     </row>
-    <row r="188" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:31" s="1" customFormat="1">
       <c r="B188" s="3"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
@@ -8068,7 +8065,7 @@
       <c r="L188" s="14"/>
       <c r="M188" s="3"/>
       <c r="N188" s="15"/>
-      <c r="O188" s="68" t="str">
+      <c r="O188" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -8089,7 +8086,7 @@
       <c r="AD188" s="10"/>
       <c r="AE188" s="36"/>
     </row>
-    <row r="189" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:31" s="1" customFormat="1">
       <c r="B189" s="3"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
@@ -8103,7 +8100,7 @@
       <c r="L189" s="14"/>
       <c r="M189" s="3"/>
       <c r="N189" s="15"/>
-      <c r="O189" s="68" t="str">
+      <c r="O189" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -8124,7 +8121,7 @@
       <c r="AD189" s="10"/>
       <c r="AE189" s="36"/>
     </row>
-    <row r="190" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:31" s="1" customFormat="1">
       <c r="B190" s="3"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
@@ -8138,7 +8135,7 @@
       <c r="L190" s="14"/>
       <c r="M190" s="3"/>
       <c r="N190" s="15"/>
-      <c r="O190" s="68" t="str">
+      <c r="O190" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -8159,7 +8156,7 @@
       <c r="AD190" s="10"/>
       <c r="AE190" s="36"/>
     </row>
-    <row r="191" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:31" s="1" customFormat="1">
       <c r="B191" s="3"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
@@ -8173,7 +8170,7 @@
       <c r="L191" s="14"/>
       <c r="M191" s="3"/>
       <c r="N191" s="15"/>
-      <c r="O191" s="68" t="str">
+      <c r="O191" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -8194,7 +8191,7 @@
       <c r="AD191" s="10"/>
       <c r="AE191" s="36"/>
     </row>
-    <row r="192" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:31" s="1" customFormat="1">
       <c r="B192" s="3"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
@@ -8208,7 +8205,7 @@
       <c r="L192" s="14"/>
       <c r="M192" s="3"/>
       <c r="N192" s="15"/>
-      <c r="O192" s="68" t="str">
+      <c r="O192" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -8229,7 +8226,7 @@
       <c r="AD192" s="10"/>
       <c r="AE192" s="36"/>
     </row>
-    <row r="193" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:31" s="1" customFormat="1">
       <c r="B193" s="3"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
@@ -8243,7 +8240,7 @@
       <c r="L193" s="14"/>
       <c r="M193" s="3"/>
       <c r="N193" s="15"/>
-      <c r="O193" s="68" t="str">
+      <c r="O193" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -8264,7 +8261,7 @@
       <c r="AD193" s="10"/>
       <c r="AE193" s="36"/>
     </row>
-    <row r="194" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:31" s="1" customFormat="1">
       <c r="B194" s="3"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
@@ -8278,7 +8275,7 @@
       <c r="L194" s="14"/>
       <c r="M194" s="3"/>
       <c r="N194" s="15"/>
-      <c r="O194" s="68" t="str">
+      <c r="O194" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -8299,7 +8296,7 @@
       <c r="AD194" s="10"/>
       <c r="AE194" s="36"/>
     </row>
-    <row r="195" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:31" s="1" customFormat="1">
       <c r="B195" s="3"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
@@ -8313,7 +8310,7 @@
       <c r="L195" s="14"/>
       <c r="M195" s="3"/>
       <c r="N195" s="15"/>
-      <c r="O195" s="68" t="str">
+      <c r="O195" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -8334,7 +8331,7 @@
       <c r="AD195" s="10"/>
       <c r="AE195" s="36"/>
     </row>
-    <row r="196" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:31" s="1" customFormat="1">
       <c r="B196" s="3"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
@@ -8348,7 +8345,7 @@
       <c r="L196" s="14"/>
       <c r="M196" s="3"/>
       <c r="N196" s="15"/>
-      <c r="O196" s="68" t="str">
+      <c r="O196" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -8369,7 +8366,7 @@
       <c r="AD196" s="10"/>
       <c r="AE196" s="36"/>
     </row>
-    <row r="197" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:31" s="1" customFormat="1">
       <c r="B197" s="3"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
@@ -8383,7 +8380,7 @@
       <c r="L197" s="14"/>
       <c r="M197" s="3"/>
       <c r="N197" s="15"/>
-      <c r="O197" s="68" t="str">
+      <c r="O197" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -8404,7 +8401,7 @@
       <c r="AD197" s="10"/>
       <c r="AE197" s="36"/>
     </row>
-    <row r="198" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:31" s="1" customFormat="1">
       <c r="B198" s="3"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
@@ -8418,7 +8415,7 @@
       <c r="L198" s="14"/>
       <c r="M198" s="3"/>
       <c r="N198" s="15"/>
-      <c r="O198" s="68" t="str">
+      <c r="O198" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -8439,7 +8436,7 @@
       <c r="AD198" s="10"/>
       <c r="AE198" s="36"/>
     </row>
-    <row r="199" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:31" s="1" customFormat="1">
       <c r="B199" s="3"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
@@ -8453,7 +8450,7 @@
       <c r="L199" s="14"/>
       <c r="M199" s="3"/>
       <c r="N199" s="15"/>
-      <c r="O199" s="68" t="str">
+      <c r="O199" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -8474,7 +8471,7 @@
       <c r="AD199" s="10"/>
       <c r="AE199" s="36"/>
     </row>
-    <row r="200" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:31" s="1" customFormat="1">
       <c r="B200" s="3"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
@@ -8488,7 +8485,7 @@
       <c r="L200" s="14"/>
       <c r="M200" s="3"/>
       <c r="N200" s="15"/>
-      <c r="O200" s="68" t="str">
+      <c r="O200" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -8509,7 +8506,7 @@
       <c r="AD200" s="10"/>
       <c r="AE200" s="36"/>
     </row>
-    <row r="201" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:31" s="1" customFormat="1">
       <c r="B201" s="3"/>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
@@ -8523,7 +8520,7 @@
       <c r="L201" s="14"/>
       <c r="M201" s="3"/>
       <c r="N201" s="15"/>
-      <c r="O201" s="68" t="str">
+      <c r="O201" s="48" t="str">
         <f t="shared" ref="O201:O264" si="3">LEFT(B201,9)&amp;P201</f>
         <v/>
       </c>
@@ -8544,7 +8541,7 @@
       <c r="AD201" s="10"/>
       <c r="AE201" s="36"/>
     </row>
-    <row r="202" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:31" s="1" customFormat="1">
       <c r="B202" s="3"/>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
@@ -8558,7 +8555,7 @@
       <c r="L202" s="14"/>
       <c r="M202" s="3"/>
       <c r="N202" s="15"/>
-      <c r="O202" s="68" t="str">
+      <c r="O202" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8579,7 +8576,7 @@
       <c r="AD202" s="10"/>
       <c r="AE202" s="36"/>
     </row>
-    <row r="203" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:31" s="1" customFormat="1">
       <c r="B203" s="3"/>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
@@ -8593,7 +8590,7 @@
       <c r="L203" s="14"/>
       <c r="M203" s="3"/>
       <c r="N203" s="15"/>
-      <c r="O203" s="68" t="str">
+      <c r="O203" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8614,7 +8611,7 @@
       <c r="AD203" s="10"/>
       <c r="AE203" s="36"/>
     </row>
-    <row r="204" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:31" s="1" customFormat="1">
       <c r="B204" s="3"/>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
@@ -8628,7 +8625,7 @@
       <c r="L204" s="14"/>
       <c r="M204" s="3"/>
       <c r="N204" s="15"/>
-      <c r="O204" s="68" t="str">
+      <c r="O204" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8649,7 +8646,7 @@
       <c r="AD204" s="10"/>
       <c r="AE204" s="36"/>
     </row>
-    <row r="205" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:31" s="1" customFormat="1">
       <c r="B205" s="3"/>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
@@ -8663,7 +8660,7 @@
       <c r="L205" s="14"/>
       <c r="M205" s="3"/>
       <c r="N205" s="15"/>
-      <c r="O205" s="68" t="str">
+      <c r="O205" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8684,7 +8681,7 @@
       <c r="AD205" s="10"/>
       <c r="AE205" s="36"/>
     </row>
-    <row r="206" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:31" s="1" customFormat="1">
       <c r="B206" s="3"/>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
@@ -8698,7 +8695,7 @@
       <c r="L206" s="14"/>
       <c r="M206" s="3"/>
       <c r="N206" s="15"/>
-      <c r="O206" s="68" t="str">
+      <c r="O206" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8719,7 +8716,7 @@
       <c r="AD206" s="10"/>
       <c r="AE206" s="36"/>
     </row>
-    <row r="207" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:31" s="1" customFormat="1">
       <c r="B207" s="3"/>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
@@ -8733,7 +8730,7 @@
       <c r="L207" s="14"/>
       <c r="M207" s="3"/>
       <c r="N207" s="15"/>
-      <c r="O207" s="68" t="str">
+      <c r="O207" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8754,7 +8751,7 @@
       <c r="AD207" s="10"/>
       <c r="AE207" s="36"/>
     </row>
-    <row r="208" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:31" s="1" customFormat="1">
       <c r="B208" s="3"/>
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
@@ -8768,7 +8765,7 @@
       <c r="L208" s="14"/>
       <c r="M208" s="3"/>
       <c r="N208" s="15"/>
-      <c r="O208" s="68" t="str">
+      <c r="O208" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8789,7 +8786,7 @@
       <c r="AD208" s="10"/>
       <c r="AE208" s="36"/>
     </row>
-    <row r="209" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:31" s="1" customFormat="1">
       <c r="B209" s="3"/>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
@@ -8803,7 +8800,7 @@
       <c r="L209" s="14"/>
       <c r="M209" s="3"/>
       <c r="N209" s="15"/>
-      <c r="O209" s="68" t="str">
+      <c r="O209" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8824,7 +8821,7 @@
       <c r="AD209" s="10"/>
       <c r="AE209" s="36"/>
     </row>
-    <row r="210" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:31" s="1" customFormat="1">
       <c r="B210" s="3"/>
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
@@ -8838,7 +8835,7 @@
       <c r="L210" s="14"/>
       <c r="M210" s="3"/>
       <c r="N210" s="15"/>
-      <c r="O210" s="68" t="str">
+      <c r="O210" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8859,7 +8856,7 @@
       <c r="AD210" s="10"/>
       <c r="AE210" s="36"/>
     </row>
-    <row r="211" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:31" s="1" customFormat="1">
       <c r="B211" s="3"/>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
@@ -8873,7 +8870,7 @@
       <c r="L211" s="14"/>
       <c r="M211" s="3"/>
       <c r="N211" s="15"/>
-      <c r="O211" s="68" t="str">
+      <c r="O211" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8894,7 +8891,7 @@
       <c r="AD211" s="10"/>
       <c r="AE211" s="36"/>
     </row>
-    <row r="212" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:31" s="1" customFormat="1">
       <c r="B212" s="3"/>
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
@@ -8908,7 +8905,7 @@
       <c r="L212" s="14"/>
       <c r="M212" s="3"/>
       <c r="N212" s="15"/>
-      <c r="O212" s="68" t="str">
+      <c r="O212" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8929,7 +8926,7 @@
       <c r="AD212" s="10"/>
       <c r="AE212" s="36"/>
     </row>
-    <row r="213" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:31" s="1" customFormat="1">
       <c r="B213" s="3"/>
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
@@ -8943,7 +8940,7 @@
       <c r="L213" s="14"/>
       <c r="M213" s="3"/>
       <c r="N213" s="15"/>
-      <c r="O213" s="68" t="str">
+      <c r="O213" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8964,7 +8961,7 @@
       <c r="AD213" s="10"/>
       <c r="AE213" s="36"/>
     </row>
-    <row r="214" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:31" s="1" customFormat="1">
       <c r="B214" s="3"/>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
@@ -8978,7 +8975,7 @@
       <c r="L214" s="14"/>
       <c r="M214" s="3"/>
       <c r="N214" s="15"/>
-      <c r="O214" s="68" t="str">
+      <c r="O214" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8999,7 +8996,7 @@
       <c r="AD214" s="10"/>
       <c r="AE214" s="36"/>
     </row>
-    <row r="215" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:31" s="1" customFormat="1">
       <c r="B215" s="3"/>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
@@ -9013,7 +9010,7 @@
       <c r="L215" s="14"/>
       <c r="M215" s="3"/>
       <c r="N215" s="15"/>
-      <c r="O215" s="68" t="str">
+      <c r="O215" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9034,7 +9031,7 @@
       <c r="AD215" s="10"/>
       <c r="AE215" s="36"/>
     </row>
-    <row r="216" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:31" s="1" customFormat="1">
       <c r="B216" s="3"/>
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
@@ -9048,7 +9045,7 @@
       <c r="L216" s="14"/>
       <c r="M216" s="3"/>
       <c r="N216" s="15"/>
-      <c r="O216" s="68" t="str">
+      <c r="O216" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9069,7 +9066,7 @@
       <c r="AD216" s="10"/>
       <c r="AE216" s="36"/>
     </row>
-    <row r="217" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:31" s="1" customFormat="1">
       <c r="B217" s="3"/>
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
@@ -9083,7 +9080,7 @@
       <c r="L217" s="14"/>
       <c r="M217" s="3"/>
       <c r="N217" s="15"/>
-      <c r="O217" s="68" t="str">
+      <c r="O217" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9104,7 +9101,7 @@
       <c r="AD217" s="10"/>
       <c r="AE217" s="36"/>
     </row>
-    <row r="218" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:31" s="1" customFormat="1">
       <c r="B218" s="3"/>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
@@ -9118,7 +9115,7 @@
       <c r="L218" s="14"/>
       <c r="M218" s="3"/>
       <c r="N218" s="15"/>
-      <c r="O218" s="68" t="str">
+      <c r="O218" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9139,7 +9136,7 @@
       <c r="AD218" s="10"/>
       <c r="AE218" s="36"/>
     </row>
-    <row r="219" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:31" s="1" customFormat="1">
       <c r="B219" s="3"/>
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
@@ -9153,7 +9150,7 @@
       <c r="L219" s="14"/>
       <c r="M219" s="3"/>
       <c r="N219" s="15"/>
-      <c r="O219" s="68" t="str">
+      <c r="O219" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9174,7 +9171,7 @@
       <c r="AD219" s="10"/>
       <c r="AE219" s="36"/>
     </row>
-    <row r="220" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:31" s="1" customFormat="1">
       <c r="B220" s="3"/>
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
@@ -9188,7 +9185,7 @@
       <c r="L220" s="14"/>
       <c r="M220" s="3"/>
       <c r="N220" s="15"/>
-      <c r="O220" s="68" t="str">
+      <c r="O220" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9209,7 +9206,7 @@
       <c r="AD220" s="10"/>
       <c r="AE220" s="36"/>
     </row>
-    <row r="221" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:31" s="1" customFormat="1">
       <c r="B221" s="3"/>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
@@ -9223,7 +9220,7 @@
       <c r="L221" s="14"/>
       <c r="M221" s="3"/>
       <c r="N221" s="15"/>
-      <c r="O221" s="68" t="str">
+      <c r="O221" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9244,7 +9241,7 @@
       <c r="AD221" s="10"/>
       <c r="AE221" s="36"/>
     </row>
-    <row r="222" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:31" s="1" customFormat="1">
       <c r="B222" s="3"/>
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
@@ -9258,7 +9255,7 @@
       <c r="L222" s="14"/>
       <c r="M222" s="3"/>
       <c r="N222" s="15"/>
-      <c r="O222" s="68" t="str">
+      <c r="O222" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9279,7 +9276,7 @@
       <c r="AD222" s="10"/>
       <c r="AE222" s="36"/>
     </row>
-    <row r="223" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:31" s="1" customFormat="1">
       <c r="B223" s="3"/>
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
@@ -9293,7 +9290,7 @@
       <c r="L223" s="14"/>
       <c r="M223" s="3"/>
       <c r="N223" s="15"/>
-      <c r="O223" s="68" t="str">
+      <c r="O223" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9314,7 +9311,7 @@
       <c r="AD223" s="10"/>
       <c r="AE223" s="36"/>
     </row>
-    <row r="224" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:31" s="1" customFormat="1">
       <c r="B224" s="3"/>
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
@@ -9328,7 +9325,7 @@
       <c r="L224" s="14"/>
       <c r="M224" s="3"/>
       <c r="N224" s="15"/>
-      <c r="O224" s="68" t="str">
+      <c r="O224" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9349,7 +9346,7 @@
       <c r="AD224" s="10"/>
       <c r="AE224" s="36"/>
     </row>
-    <row r="225" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:31" s="1" customFormat="1">
       <c r="B225" s="3"/>
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
@@ -9363,7 +9360,7 @@
       <c r="L225" s="14"/>
       <c r="M225" s="3"/>
       <c r="N225" s="15"/>
-      <c r="O225" s="68" t="str">
+      <c r="O225" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9384,7 +9381,7 @@
       <c r="AD225" s="10"/>
       <c r="AE225" s="36"/>
     </row>
-    <row r="226" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:31" s="1" customFormat="1">
       <c r="B226" s="3"/>
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
@@ -9398,7 +9395,7 @@
       <c r="L226" s="14"/>
       <c r="M226" s="3"/>
       <c r="N226" s="15"/>
-      <c r="O226" s="68" t="str">
+      <c r="O226" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9419,7 +9416,7 @@
       <c r="AD226" s="10"/>
       <c r="AE226" s="36"/>
     </row>
-    <row r="227" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:31" s="1" customFormat="1">
       <c r="B227" s="3"/>
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
@@ -9433,7 +9430,7 @@
       <c r="L227" s="14"/>
       <c r="M227" s="3"/>
       <c r="N227" s="15"/>
-      <c r="O227" s="68" t="str">
+      <c r="O227" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9454,7 +9451,7 @@
       <c r="AD227" s="10"/>
       <c r="AE227" s="36"/>
     </row>
-    <row r="228" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:31" s="1" customFormat="1">
       <c r="B228" s="3"/>
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
@@ -9468,7 +9465,7 @@
       <c r="L228" s="14"/>
       <c r="M228" s="3"/>
       <c r="N228" s="15"/>
-      <c r="O228" s="68" t="str">
+      <c r="O228" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9489,7 +9486,7 @@
       <c r="AD228" s="10"/>
       <c r="AE228" s="36"/>
     </row>
-    <row r="229" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:31" s="1" customFormat="1">
       <c r="B229" s="3"/>
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
@@ -9503,7 +9500,7 @@
       <c r="L229" s="14"/>
       <c r="M229" s="3"/>
       <c r="N229" s="15"/>
-      <c r="O229" s="68" t="str">
+      <c r="O229" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9524,7 +9521,7 @@
       <c r="AD229" s="10"/>
       <c r="AE229" s="36"/>
     </row>
-    <row r="230" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:31" s="1" customFormat="1">
       <c r="B230" s="3"/>
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
@@ -9538,7 +9535,7 @@
       <c r="L230" s="14"/>
       <c r="M230" s="3"/>
       <c r="N230" s="15"/>
-      <c r="O230" s="68" t="str">
+      <c r="O230" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9559,7 +9556,7 @@
       <c r="AD230" s="10"/>
       <c r="AE230" s="36"/>
     </row>
-    <row r="231" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:31" s="1" customFormat="1">
       <c r="B231" s="3"/>
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
@@ -9573,7 +9570,7 @@
       <c r="L231" s="14"/>
       <c r="M231" s="3"/>
       <c r="N231" s="15"/>
-      <c r="O231" s="68" t="str">
+      <c r="O231" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9594,7 +9591,7 @@
       <c r="AD231" s="10"/>
       <c r="AE231" s="36"/>
     </row>
-    <row r="232" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:31" s="1" customFormat="1">
       <c r="B232" s="3"/>
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
@@ -9608,7 +9605,7 @@
       <c r="L232" s="14"/>
       <c r="M232" s="3"/>
       <c r="N232" s="15"/>
-      <c r="O232" s="68" t="str">
+      <c r="O232" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9629,7 +9626,7 @@
       <c r="AD232" s="10"/>
       <c r="AE232" s="36"/>
     </row>
-    <row r="233" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:31" s="1" customFormat="1">
       <c r="B233" s="3"/>
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
@@ -9643,7 +9640,7 @@
       <c r="L233" s="14"/>
       <c r="M233" s="3"/>
       <c r="N233" s="15"/>
-      <c r="O233" s="68" t="str">
+      <c r="O233" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9664,7 +9661,7 @@
       <c r="AD233" s="10"/>
       <c r="AE233" s="36"/>
     </row>
-    <row r="234" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:31" s="1" customFormat="1">
       <c r="B234" s="3"/>
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
@@ -9678,7 +9675,7 @@
       <c r="L234" s="14"/>
       <c r="M234" s="3"/>
       <c r="N234" s="15"/>
-      <c r="O234" s="68" t="str">
+      <c r="O234" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9699,7 +9696,7 @@
       <c r="AD234" s="10"/>
       <c r="AE234" s="36"/>
     </row>
-    <row r="235" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:31" s="1" customFormat="1">
       <c r="B235" s="3"/>
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
@@ -9713,7 +9710,7 @@
       <c r="L235" s="14"/>
       <c r="M235" s="3"/>
       <c r="N235" s="15"/>
-      <c r="O235" s="68" t="str">
+      <c r="O235" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9734,7 +9731,7 @@
       <c r="AD235" s="10"/>
       <c r="AE235" s="36"/>
     </row>
-    <row r="236" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:31" s="1" customFormat="1">
       <c r="B236" s="3"/>
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
@@ -9748,7 +9745,7 @@
       <c r="L236" s="14"/>
       <c r="M236" s="3"/>
       <c r="N236" s="15"/>
-      <c r="O236" s="68" t="str">
+      <c r="O236" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9769,7 +9766,7 @@
       <c r="AD236" s="10"/>
       <c r="AE236" s="36"/>
     </row>
-    <row r="237" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:31" s="1" customFormat="1">
       <c r="B237" s="3"/>
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
@@ -9783,7 +9780,7 @@
       <c r="L237" s="14"/>
       <c r="M237" s="3"/>
       <c r="N237" s="15"/>
-      <c r="O237" s="68" t="str">
+      <c r="O237" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9804,7 +9801,7 @@
       <c r="AD237" s="10"/>
       <c r="AE237" s="36"/>
     </row>
-    <row r="238" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:31" s="1" customFormat="1">
       <c r="B238" s="3"/>
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
@@ -9818,7 +9815,7 @@
       <c r="L238" s="14"/>
       <c r="M238" s="3"/>
       <c r="N238" s="15"/>
-      <c r="O238" s="68" t="str">
+      <c r="O238" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9839,7 +9836,7 @@
       <c r="AD238" s="10"/>
       <c r="AE238" s="36"/>
     </row>
-    <row r="239" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:31" s="1" customFormat="1">
       <c r="B239" s="3"/>
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
@@ -9853,7 +9850,7 @@
       <c r="L239" s="14"/>
       <c r="M239" s="3"/>
       <c r="N239" s="15"/>
-      <c r="O239" s="68" t="str">
+      <c r="O239" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9874,7 +9871,7 @@
       <c r="AD239" s="10"/>
       <c r="AE239" s="36"/>
     </row>
-    <row r="240" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:31" s="1" customFormat="1">
       <c r="B240" s="3"/>
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
@@ -9888,7 +9885,7 @@
       <c r="L240" s="14"/>
       <c r="M240" s="3"/>
       <c r="N240" s="15"/>
-      <c r="O240" s="68" t="str">
+      <c r="O240" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9909,7 +9906,7 @@
       <c r="AD240" s="10"/>
       <c r="AE240" s="36"/>
     </row>
-    <row r="241" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:31" s="1" customFormat="1">
       <c r="B241" s="3"/>
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
@@ -9923,7 +9920,7 @@
       <c r="L241" s="14"/>
       <c r="M241" s="3"/>
       <c r="N241" s="15"/>
-      <c r="O241" s="68" t="str">
+      <c r="O241" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9944,7 +9941,7 @@
       <c r="AD241" s="10"/>
       <c r="AE241" s="36"/>
     </row>
-    <row r="242" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:31" s="1" customFormat="1">
       <c r="B242" s="3"/>
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
@@ -9958,7 +9955,7 @@
       <c r="L242" s="14"/>
       <c r="M242" s="3"/>
       <c r="N242" s="15"/>
-      <c r="O242" s="68" t="str">
+      <c r="O242" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -9979,7 +9976,7 @@
       <c r="AD242" s="10"/>
       <c r="AE242" s="36"/>
     </row>
-    <row r="243" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:31" s="1" customFormat="1">
       <c r="B243" s="3"/>
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
@@ -9993,7 +9990,7 @@
       <c r="L243" s="14"/>
       <c r="M243" s="3"/>
       <c r="N243" s="15"/>
-      <c r="O243" s="68" t="str">
+      <c r="O243" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10014,7 +10011,7 @@
       <c r="AD243" s="10"/>
       <c r="AE243" s="36"/>
     </row>
-    <row r="244" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:31" s="1" customFormat="1">
       <c r="B244" s="3"/>
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
@@ -10028,7 +10025,7 @@
       <c r="L244" s="14"/>
       <c r="M244" s="3"/>
       <c r="N244" s="15"/>
-      <c r="O244" s="68" t="str">
+      <c r="O244" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10049,7 +10046,7 @@
       <c r="AD244" s="10"/>
       <c r="AE244" s="36"/>
     </row>
-    <row r="245" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:31" s="1" customFormat="1">
       <c r="B245" s="3"/>
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
@@ -10063,7 +10060,7 @@
       <c r="L245" s="14"/>
       <c r="M245" s="3"/>
       <c r="N245" s="15"/>
-      <c r="O245" s="68" t="str">
+      <c r="O245" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10084,7 +10081,7 @@
       <c r="AD245" s="10"/>
       <c r="AE245" s="36"/>
     </row>
-    <row r="246" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:31" s="1" customFormat="1">
       <c r="B246" s="3"/>
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
@@ -10098,7 +10095,7 @@
       <c r="L246" s="14"/>
       <c r="M246" s="3"/>
       <c r="N246" s="15"/>
-      <c r="O246" s="68" t="str">
+      <c r="O246" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10119,7 +10116,7 @@
       <c r="AD246" s="10"/>
       <c r="AE246" s="36"/>
     </row>
-    <row r="247" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:31" s="1" customFormat="1">
       <c r="B247" s="3"/>
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
@@ -10133,7 +10130,7 @@
       <c r="L247" s="14"/>
       <c r="M247" s="3"/>
       <c r="N247" s="15"/>
-      <c r="O247" s="68" t="str">
+      <c r="O247" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10154,7 +10151,7 @@
       <c r="AD247" s="10"/>
       <c r="AE247" s="36"/>
     </row>
-    <row r="248" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:31" s="1" customFormat="1">
       <c r="B248" s="3"/>
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
@@ -10168,7 +10165,7 @@
       <c r="L248" s="14"/>
       <c r="M248" s="3"/>
       <c r="N248" s="15"/>
-      <c r="O248" s="68" t="str">
+      <c r="O248" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10189,7 +10186,7 @@
       <c r="AD248" s="10"/>
       <c r="AE248" s="36"/>
     </row>
-    <row r="249" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:31" s="1" customFormat="1">
       <c r="B249" s="3"/>
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
@@ -10203,7 +10200,7 @@
       <c r="L249" s="14"/>
       <c r="M249" s="3"/>
       <c r="N249" s="15"/>
-      <c r="O249" s="68" t="str">
+      <c r="O249" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10224,7 +10221,7 @@
       <c r="AD249" s="10"/>
       <c r="AE249" s="36"/>
     </row>
-    <row r="250" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:31" s="1" customFormat="1">
       <c r="B250" s="3"/>
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
@@ -10238,7 +10235,7 @@
       <c r="L250" s="14"/>
       <c r="M250" s="3"/>
       <c r="N250" s="15"/>
-      <c r="O250" s="68" t="str">
+      <c r="O250" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10259,7 +10256,7 @@
       <c r="AD250" s="10"/>
       <c r="AE250" s="36"/>
     </row>
-    <row r="251" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:31" s="1" customFormat="1">
       <c r="B251" s="3"/>
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
@@ -10273,7 +10270,7 @@
       <c r="L251" s="14"/>
       <c r="M251" s="3"/>
       <c r="N251" s="15"/>
-      <c r="O251" s="68" t="str">
+      <c r="O251" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10294,7 +10291,7 @@
       <c r="AD251" s="10"/>
       <c r="AE251" s="36"/>
     </row>
-    <row r="252" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:31" s="1" customFormat="1">
       <c r="B252" s="3"/>
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
@@ -10308,7 +10305,7 @@
       <c r="L252" s="14"/>
       <c r="M252" s="3"/>
       <c r="N252" s="15"/>
-      <c r="O252" s="68" t="str">
+      <c r="O252" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10329,7 +10326,7 @@
       <c r="AD252" s="10"/>
       <c r="AE252" s="36"/>
     </row>
-    <row r="253" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:31" s="1" customFormat="1">
       <c r="B253" s="3"/>
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
@@ -10343,7 +10340,7 @@
       <c r="L253" s="14"/>
       <c r="M253" s="3"/>
       <c r="N253" s="15"/>
-      <c r="O253" s="68" t="str">
+      <c r="O253" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10364,7 +10361,7 @@
       <c r="AD253" s="10"/>
       <c r="AE253" s="36"/>
     </row>
-    <row r="254" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:31" s="1" customFormat="1">
       <c r="B254" s="3"/>
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
@@ -10378,7 +10375,7 @@
       <c r="L254" s="14"/>
       <c r="M254" s="3"/>
       <c r="N254" s="15"/>
-      <c r="O254" s="68" t="str">
+      <c r="O254" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10399,7 +10396,7 @@
       <c r="AD254" s="10"/>
       <c r="AE254" s="36"/>
     </row>
-    <row r="255" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:31" s="1" customFormat="1">
       <c r="B255" s="3"/>
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
@@ -10413,7 +10410,7 @@
       <c r="L255" s="14"/>
       <c r="M255" s="3"/>
       <c r="N255" s="15"/>
-      <c r="O255" s="68" t="str">
+      <c r="O255" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10434,7 +10431,7 @@
       <c r="AD255" s="10"/>
       <c r="AE255" s="36"/>
     </row>
-    <row r="256" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:31" s="1" customFormat="1">
       <c r="B256" s="3"/>
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
@@ -10448,7 +10445,7 @@
       <c r="L256" s="14"/>
       <c r="M256" s="3"/>
       <c r="N256" s="15"/>
-      <c r="O256" s="68" t="str">
+      <c r="O256" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10469,7 +10466,7 @@
       <c r="AD256" s="10"/>
       <c r="AE256" s="36"/>
     </row>
-    <row r="257" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:31" s="1" customFormat="1">
       <c r="B257" s="3"/>
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
@@ -10483,7 +10480,7 @@
       <c r="L257" s="14"/>
       <c r="M257" s="3"/>
       <c r="N257" s="15"/>
-      <c r="O257" s="68" t="str">
+      <c r="O257" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10504,7 +10501,7 @@
       <c r="AD257" s="10"/>
       <c r="AE257" s="36"/>
     </row>
-    <row r="258" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:31" s="1" customFormat="1">
       <c r="B258" s="3"/>
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
@@ -10518,7 +10515,7 @@
       <c r="L258" s="14"/>
       <c r="M258" s="3"/>
       <c r="N258" s="15"/>
-      <c r="O258" s="68" t="str">
+      <c r="O258" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10539,7 +10536,7 @@
       <c r="AD258" s="10"/>
       <c r="AE258" s="36"/>
     </row>
-    <row r="259" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:31" s="1" customFormat="1">
       <c r="B259" s="3"/>
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
@@ -10553,7 +10550,7 @@
       <c r="L259" s="14"/>
       <c r="M259" s="3"/>
       <c r="N259" s="15"/>
-      <c r="O259" s="68" t="str">
+      <c r="O259" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10574,7 +10571,7 @@
       <c r="AD259" s="10"/>
       <c r="AE259" s="36"/>
     </row>
-    <row r="260" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:31" s="1" customFormat="1">
       <c r="B260" s="3"/>
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
@@ -10588,7 +10585,7 @@
       <c r="L260" s="14"/>
       <c r="M260" s="3"/>
       <c r="N260" s="15"/>
-      <c r="O260" s="68" t="str">
+      <c r="O260" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10609,7 +10606,7 @@
       <c r="AD260" s="10"/>
       <c r="AE260" s="36"/>
     </row>
-    <row r="261" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:31" s="1" customFormat="1">
       <c r="B261" s="3"/>
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
@@ -10623,7 +10620,7 @@
       <c r="L261" s="14"/>
       <c r="M261" s="3"/>
       <c r="N261" s="15"/>
-      <c r="O261" s="68" t="str">
+      <c r="O261" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10644,7 +10641,7 @@
       <c r="AD261" s="10"/>
       <c r="AE261" s="36"/>
     </row>
-    <row r="262" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:31" s="1" customFormat="1">
       <c r="B262" s="3"/>
       <c r="C262" s="45"/>
       <c r="D262" s="5"/>
@@ -10658,7 +10655,7 @@
       <c r="L262" s="14"/>
       <c r="M262" s="3"/>
       <c r="N262" s="15"/>
-      <c r="O262" s="68" t="str">
+      <c r="O262" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10679,7 +10676,7 @@
       <c r="AD262" s="10"/>
       <c r="AE262" s="36"/>
     </row>
-    <row r="263" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:31" s="1" customFormat="1">
       <c r="B263" s="3"/>
       <c r="C263" s="45"/>
       <c r="D263" s="5"/>
@@ -10693,7 +10690,7 @@
       <c r="L263" s="14"/>
       <c r="M263" s="3"/>
       <c r="N263" s="15"/>
-      <c r="O263" s="68" t="str">
+      <c r="O263" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10714,7 +10711,7 @@
       <c r="AD263" s="10"/>
       <c r="AE263" s="36"/>
     </row>
-    <row r="264" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:31" s="1" customFormat="1">
       <c r="B264" s="3"/>
       <c r="C264" s="45"/>
       <c r="D264" s="5"/>
@@ -10728,7 +10725,7 @@
       <c r="L264" s="14"/>
       <c r="M264" s="3"/>
       <c r="N264" s="15"/>
-      <c r="O264" s="68" t="str">
+      <c r="O264" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -10749,7 +10746,7 @@
       <c r="AD264" s="10"/>
       <c r="AE264" s="36"/>
     </row>
-    <row r="265" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:31" s="1" customFormat="1">
       <c r="B265" s="3"/>
       <c r="C265" s="45"/>
       <c r="D265" s="5"/>
@@ -10763,7 +10760,7 @@
       <c r="L265" s="14"/>
       <c r="M265" s="3"/>
       <c r="N265" s="15"/>
-      <c r="O265" s="68" t="str">
+      <c r="O265" s="48" t="str">
         <f t="shared" ref="O265:O287" si="4">LEFT(B265,9)&amp;P265</f>
         <v/>
       </c>
@@ -10784,7 +10781,7 @@
       <c r="AD265" s="10"/>
       <c r="AE265" s="36"/>
     </row>
-    <row r="266" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:31" s="1" customFormat="1">
       <c r="B266" s="3"/>
       <c r="C266" s="45"/>
       <c r="D266" s="5"/>
@@ -10798,7 +10795,7 @@
       <c r="L266" s="14"/>
       <c r="M266" s="3"/>
       <c r="N266" s="15"/>
-      <c r="O266" s="68" t="str">
+      <c r="O266" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -10819,7 +10816,7 @@
       <c r="AD266" s="10"/>
       <c r="AE266" s="36"/>
     </row>
-    <row r="267" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:31" s="1" customFormat="1">
       <c r="B267" s="3"/>
       <c r="C267" s="45"/>
       <c r="D267" s="5"/>
@@ -10833,7 +10830,7 @@
       <c r="L267" s="14"/>
       <c r="M267" s="3"/>
       <c r="N267" s="15"/>
-      <c r="O267" s="68" t="str">
+      <c r="O267" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -10854,7 +10851,7 @@
       <c r="AD267" s="10"/>
       <c r="AE267" s="36"/>
     </row>
-    <row r="268" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:31" s="1" customFormat="1">
       <c r="B268" s="3"/>
       <c r="C268" s="45"/>
       <c r="D268" s="5"/>
@@ -10868,7 +10865,7 @@
       <c r="L268" s="14"/>
       <c r="M268" s="3"/>
       <c r="N268" s="15"/>
-      <c r="O268" s="68" t="str">
+      <c r="O268" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -10889,7 +10886,7 @@
       <c r="AD268" s="10"/>
       <c r="AE268" s="36"/>
     </row>
-    <row r="269" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:31" s="1" customFormat="1">
       <c r="B269" s="3"/>
       <c r="C269" s="45"/>
       <c r="D269" s="5"/>
@@ -10903,7 +10900,7 @@
       <c r="L269" s="14"/>
       <c r="M269" s="3"/>
       <c r="N269" s="15"/>
-      <c r="O269" s="68" t="str">
+      <c r="O269" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -10924,7 +10921,7 @@
       <c r="AD269" s="10"/>
       <c r="AE269" s="36"/>
     </row>
-    <row r="270" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:31" s="1" customFormat="1">
       <c r="B270" s="3"/>
       <c r="C270" s="45"/>
       <c r="D270" s="5"/>
@@ -10938,7 +10935,7 @@
       <c r="L270" s="14"/>
       <c r="M270" s="3"/>
       <c r="N270" s="15"/>
-      <c r="O270" s="68" t="str">
+      <c r="O270" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -10959,7 +10956,7 @@
       <c r="AD270" s="10"/>
       <c r="AE270" s="36"/>
     </row>
-    <row r="271" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:31" s="1" customFormat="1">
       <c r="B271" s="3"/>
       <c r="C271" s="45"/>
       <c r="D271" s="5"/>
@@ -10973,7 +10970,7 @@
       <c r="L271" s="14"/>
       <c r="M271" s="3"/>
       <c r="N271" s="15"/>
-      <c r="O271" s="68" t="str">
+      <c r="O271" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -10994,7 +10991,7 @@
       <c r="AD271" s="10"/>
       <c r="AE271" s="36"/>
     </row>
-    <row r="272" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:31" s="1" customFormat="1">
       <c r="B272" s="3"/>
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
@@ -11008,7 +11005,7 @@
       <c r="L272" s="14"/>
       <c r="M272" s="3"/>
       <c r="N272" s="15"/>
-      <c r="O272" s="68" t="str">
+      <c r="O272" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -11029,7 +11026,7 @@
       <c r="AD272" s="10"/>
       <c r="AE272" s="36"/>
     </row>
-    <row r="273" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:31" s="1" customFormat="1">
       <c r="B273" s="3"/>
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
@@ -11043,7 +11040,7 @@
       <c r="L273" s="14"/>
       <c r="M273" s="3"/>
       <c r="N273" s="15"/>
-      <c r="O273" s="68" t="str">
+      <c r="O273" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -11064,7 +11061,7 @@
       <c r="AD273" s="10"/>
       <c r="AE273" s="36"/>
     </row>
-    <row r="274" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:31" s="1" customFormat="1">
       <c r="B274" s="3"/>
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
@@ -11078,7 +11075,7 @@
       <c r="L274" s="14"/>
       <c r="M274" s="3"/>
       <c r="N274" s="15"/>
-      <c r="O274" s="68" t="str">
+      <c r="O274" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -11099,7 +11096,7 @@
       <c r="AD274" s="10"/>
       <c r="AE274" s="36"/>
     </row>
-    <row r="275" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:31" s="1" customFormat="1">
       <c r="B275" s="3"/>
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
@@ -11113,7 +11110,7 @@
       <c r="L275" s="14"/>
       <c r="M275" s="3"/>
       <c r="N275" s="15"/>
-      <c r="O275" s="68" t="str">
+      <c r="O275" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -11134,7 +11131,7 @@
       <c r="AD275" s="10"/>
       <c r="AE275" s="36"/>
     </row>
-    <row r="276" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:31" s="1" customFormat="1">
       <c r="B276" s="3"/>
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
@@ -11148,7 +11145,7 @@
       <c r="L276" s="14"/>
       <c r="M276" s="3"/>
       <c r="N276" s="15"/>
-      <c r="O276" s="68" t="str">
+      <c r="O276" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -11169,7 +11166,7 @@
       <c r="AD276" s="10"/>
       <c r="AE276" s="36"/>
     </row>
-    <row r="277" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:31" s="1" customFormat="1">
       <c r="B277" s="3"/>
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
@@ -11183,7 +11180,7 @@
       <c r="L277" s="14"/>
       <c r="M277" s="3"/>
       <c r="N277" s="15"/>
-      <c r="O277" s="68" t="str">
+      <c r="O277" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -11204,7 +11201,7 @@
       <c r="AD277" s="10"/>
       <c r="AE277" s="36"/>
     </row>
-    <row r="278" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:31" s="1" customFormat="1">
       <c r="B278" s="3"/>
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
@@ -11218,7 +11215,7 @@
       <c r="L278" s="14"/>
       <c r="M278" s="3"/>
       <c r="N278" s="15"/>
-      <c r="O278" s="68" t="str">
+      <c r="O278" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -11239,7 +11236,7 @@
       <c r="AD278" s="10"/>
       <c r="AE278" s="36"/>
     </row>
-    <row r="279" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:31" s="1" customFormat="1">
       <c r="B279" s="3"/>
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
@@ -11253,7 +11250,7 @@
       <c r="L279" s="14"/>
       <c r="M279" s="3"/>
       <c r="N279" s="15"/>
-      <c r="O279" s="68" t="str">
+      <c r="O279" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -11274,7 +11271,7 @@
       <c r="AD279" s="10"/>
       <c r="AE279" s="36"/>
     </row>
-    <row r="280" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:31" s="1" customFormat="1">
       <c r="B280" s="3"/>
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
@@ -11288,7 +11285,7 @@
       <c r="L280" s="14"/>
       <c r="M280" s="3"/>
       <c r="N280" s="15"/>
-      <c r="O280" s="68" t="str">
+      <c r="O280" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -11309,7 +11306,7 @@
       <c r="AD280" s="10"/>
       <c r="AE280" s="36"/>
     </row>
-    <row r="281" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:31" s="1" customFormat="1">
       <c r="B281" s="3"/>
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
@@ -11323,7 +11320,7 @@
       <c r="L281" s="14"/>
       <c r="M281" s="3"/>
       <c r="N281" s="15"/>
-      <c r="O281" s="68" t="str">
+      <c r="O281" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -11344,7 +11341,7 @@
       <c r="AD281" s="10"/>
       <c r="AE281" s="36"/>
     </row>
-    <row r="282" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:31" s="1" customFormat="1">
       <c r="B282" s="3"/>
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
@@ -11358,7 +11355,7 @@
       <c r="L282" s="14"/>
       <c r="M282" s="3"/>
       <c r="N282" s="15"/>
-      <c r="O282" s="68" t="str">
+      <c r="O282" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -11379,7 +11376,7 @@
       <c r="AD282" s="10"/>
       <c r="AE282" s="36"/>
     </row>
-    <row r="283" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:31" s="1" customFormat="1">
       <c r="B283" s="3"/>
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
@@ -11393,7 +11390,7 @@
       <c r="L283" s="14"/>
       <c r="M283" s="3"/>
       <c r="N283" s="15"/>
-      <c r="O283" s="68" t="str">
+      <c r="O283" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -11414,7 +11411,7 @@
       <c r="AD283" s="10"/>
       <c r="AE283" s="36"/>
     </row>
-    <row r="284" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:31" s="1" customFormat="1">
       <c r="B284" s="3"/>
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
@@ -11428,7 +11425,7 @@
       <c r="L284" s="14"/>
       <c r="M284" s="3"/>
       <c r="N284" s="15"/>
-      <c r="O284" s="68" t="str">
+      <c r="O284" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -11449,7 +11446,7 @@
       <c r="AD284" s="10"/>
       <c r="AE284" s="36"/>
     </row>
-    <row r="285" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:31" s="1" customFormat="1">
       <c r="B285" s="3"/>
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
@@ -11463,7 +11460,7 @@
       <c r="L285" s="14"/>
       <c r="M285" s="3"/>
       <c r="N285" s="15"/>
-      <c r="O285" s="68" t="str">
+      <c r="O285" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -11484,7 +11481,7 @@
       <c r="AD285" s="10"/>
       <c r="AE285" s="36"/>
     </row>
-    <row r="286" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:31" s="1" customFormat="1">
       <c r="B286" s="3"/>
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
@@ -11498,7 +11495,7 @@
       <c r="L286" s="14"/>
       <c r="M286" s="3"/>
       <c r="N286" s="15"/>
-      <c r="O286" s="68" t="str">
+      <c r="O286" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -11519,7 +11516,7 @@
       <c r="AD286" s="10"/>
       <c r="AE286" s="36"/>
     </row>
-    <row r="287" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:31" s="1" customFormat="1">
       <c r="B287" s="3"/>
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
@@ -11533,7 +11530,7 @@
       <c r="L287" s="14"/>
       <c r="M287" s="3"/>
       <c r="N287" s="15"/>
-      <c r="O287" s="68" t="str">
+      <c r="O287" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -11559,6 +11556,13 @@
     <protectedRange algorithmName="SHA-512" hashValue="82vYPwXfl8oAdSjP/J2OESH0DGcUuYloiuxQcUmJ/rMJuHj+AyFn5LWD+tP9hTa1ojNOvTJAln5SLGVKiEBWCQ==" saltValue="LFDsQqmfVSL+xhMpEIigSw==" spinCount="100000" sqref="F8:F370" name="할인공급가 자동 계산 범이로 입력X"/>
   </protectedRanges>
   <mergeCells count="20">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="AE6:AE7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="AC6:AC7"/>
@@ -11572,13 +11576,6 @@
     <mergeCell ref="P6:T6"/>
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -11612,14 +11609,14 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -11638,31 +11635,31 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A1" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
         <v>56</v>
       </c>
@@ -11673,7 +11670,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -11684,7 +11681,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -11695,7 +11692,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -11706,7 +11703,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -11733,15 +11730,15 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="19" t="s">
         <v>28</v>
       </c>
@@ -11764,7 +11761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="18" t="s">
         <v>30</v>
       </c>
@@ -11787,7 +11784,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="18" t="s">
         <v>31</v>
       </c>
@@ -11810,7 +11807,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="18" t="s">
         <v>32</v>
       </c>
@@ -11831,7 +11828,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="18" t="s">
         <v>33</v>
       </c>
@@ -11850,7 +11847,7 @@
       </c>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18" t="s">
@@ -11861,7 +11858,7 @@
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18" t="s">
@@ -11887,49 +11884,49 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>67</v>
       </c>
